--- a/pyfutures/universe.xlsx
+++ b/pyfutures/universe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1/BU/projects/pytower_develop/pyfutures/pyfutures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D104A5-19E2-3A45-B986-231FE013920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B399B-9694-DC48-9586-F3ACCE7E5508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="57100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universe" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1131">
   <si>
     <t>uname</t>
   </si>
@@ -3401,6 +3401,18 @@
   </si>
   <si>
     <t>TODO: implement x day of month for calc roll offset one day roll window, roll day is 3rd Tuesday of the month. Cahgned roll offset from -1 to -3 to pass roll</t>
+  </si>
+  <si>
+    <t>1997N</t>
+  </si>
+  <si>
+    <t>start from U to Z, data is valid from U</t>
+  </si>
+  <si>
+    <t>start from M to N, data is valid from N</t>
+  </si>
+  <si>
+    <t>carry offset: changed start month</t>
   </si>
 </sst>
 </file>
@@ -4272,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4515,7 +4527,7 @@
         <v>-60</v>
       </c>
       <c r="AD2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2">
         <v>-1</v>
@@ -4635,7 +4647,7 @@
         <v>-60</v>
       </c>
       <c r="AD3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE3">
         <v>-1</v>
@@ -4749,7 +4761,7 @@
         <v>-60</v>
       </c>
       <c r="AD4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4">
         <v>-1</v>
@@ -4860,7 +4872,7 @@
         <v>-35</v>
       </c>
       <c r="AD5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE5">
         <v>-1</v>
@@ -4976,7 +4988,7 @@
         <v>-90</v>
       </c>
       <c r="AD6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE6">
         <v>-1</v>
@@ -5083,7 +5095,7 @@
         <v>104</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>1127</v>
       </c>
       <c r="X7" t="b">
         <v>1</v>
@@ -5104,7 +5116,7 @@
         <v>-60</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7">
         <v>-1</v>
@@ -5144,6 +5156,9 @@
       </c>
       <c r="AS7" s="1">
         <v>0.80555555555555547</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
@@ -5229,7 +5244,7 @@
         <v>-45</v>
       </c>
       <c r="AD8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -5354,7 +5369,7 @@
         <v>-30</v>
       </c>
       <c r="AD9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -5458,7 +5473,7 @@
         <v>122</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X10" t="b">
         <v>1</v>
@@ -5479,7 +5494,7 @@
         <v>-60</v>
       </c>
       <c r="AD10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10">
         <v>-1</v>
@@ -5519,6 +5534,9 @@
       </c>
       <c r="AS10" s="1">
         <v>0.80555555555555547</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
@@ -5604,7 +5622,7 @@
         <v>-90</v>
       </c>
       <c r="AD11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11">
         <v>-1</v>
@@ -5732,7 +5750,7 @@
         <v>-90</v>
       </c>
       <c r="AD12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12">
         <v>-1</v>
@@ -5860,7 +5878,7 @@
         <v>-90</v>
       </c>
       <c r="AD13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE13">
         <v>-1</v>
@@ -5982,7 +6000,7 @@
         <v>-90</v>
       </c>
       <c r="AD14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE14">
         <v>-1</v>
@@ -6101,7 +6119,7 @@
         <v>-60</v>
       </c>
       <c r="AD15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15">
         <v>-1</v>
@@ -6229,7 +6247,7 @@
         <v>-60</v>
       </c>
       <c r="AD16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16">
         <v>-1</v>
@@ -6399,7 +6417,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="AT17" t="s">
-        <v>58</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
@@ -6485,7 +6503,7 @@
         <v>-60</v>
       </c>
       <c r="AD18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE18">
         <v>-1</v>
@@ -6616,7 +6634,7 @@
         <v>-60</v>
       </c>
       <c r="AD19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19">
         <v>-1</v>
@@ -6736,7 +6754,7 @@
         <v>-50</v>
       </c>
       <c r="AD20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE20">
         <v>-1</v>
@@ -6859,7 +6877,7 @@
         <v>-50</v>
       </c>
       <c r="AD21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE21">
         <v>-1</v>
@@ -6979,7 +6997,7 @@
         <v>-60</v>
       </c>
       <c r="AD22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE22">
         <v>-1</v>
@@ -7107,7 +7125,7 @@
         <v>-50</v>
       </c>
       <c r="AD23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE23">
         <v>-1</v>
@@ -7235,7 +7253,7 @@
         <v>-60</v>
       </c>
       <c r="AD24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24">
         <v>-1</v>
@@ -7363,7 +7381,7 @@
         <v>-50</v>
       </c>
       <c r="AD25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE25">
         <v>-1</v>
@@ -7491,7 +7509,7 @@
         <v>-40</v>
       </c>
       <c r="AD26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE26">
         <v>1</v>
@@ -7616,7 +7634,7 @@
         <v>-60</v>
       </c>
       <c r="AD27">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE27">
         <v>-1</v>
@@ -7736,7 +7754,7 @@
         <v>-3</v>
       </c>
       <c r="AD28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -7856,7 +7874,7 @@
         <v>-20</v>
       </c>
       <c r="AD29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -7964,7 +7982,7 @@
         <v>-20</v>
       </c>
       <c r="AD30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE30">
         <v>1</v>
@@ -8072,7 +8090,7 @@
         <v>-20</v>
       </c>
       <c r="AD31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE31">
         <v>1</v>
@@ -8180,7 +8198,7 @@
         <v>-5</v>
       </c>
       <c r="AD32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -8288,7 +8306,7 @@
         <v>-5</v>
       </c>
       <c r="AD33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE33">
         <v>1</v>
@@ -8405,7 +8423,7 @@
         <v>-5</v>
       </c>
       <c r="AD34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -8522,7 +8540,7 @@
         <v>-5</v>
       </c>
       <c r="AD35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -8639,7 +8657,7 @@
         <v>-5</v>
       </c>
       <c r="AD36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE36">
         <v>1</v>
@@ -8756,7 +8774,7 @@
         <v>-36</v>
       </c>
       <c r="AD37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -8876,7 +8894,7 @@
         <v>-5</v>
       </c>
       <c r="AD38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE38">
         <v>1</v>
@@ -8993,7 +9011,7 @@
         <v>-5</v>
       </c>
       <c r="AD39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE39">
         <v>1</v>
@@ -9118,7 +9136,7 @@
         <v>-25</v>
       </c>
       <c r="AD40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE40">
         <v>1</v>
@@ -9239,7 +9257,7 @@
         <v>-20</v>
       </c>
       <c r="AD41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE41">
         <v>1</v>
@@ -9364,7 +9382,7 @@
         <v>-25</v>
       </c>
       <c r="AD42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE42">
         <v>1</v>
@@ -9480,7 +9498,7 @@
         <v>-25</v>
       </c>
       <c r="AD43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE43">
         <v>1</v>
@@ -9596,7 +9614,7 @@
         <v>-25</v>
       </c>
       <c r="AD44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE44">
         <v>1</v>
@@ -9721,7 +9739,7 @@
         <v>-25</v>
       </c>
       <c r="AD45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE45">
         <v>1</v>
@@ -9846,7 +9864,7 @@
         <v>-25</v>
       </c>
       <c r="AD46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE46">
         <v>1</v>
@@ -9963,7 +9981,7 @@
         <v>-45</v>
       </c>
       <c r="AD47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE47">
         <v>-1</v>
@@ -10074,7 +10092,7 @@
         <v>-270</v>
       </c>
       <c r="AD48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE48">
         <v>-1</v>
@@ -10194,7 +10212,7 @@
         <v>-60</v>
       </c>
       <c r="AD49">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AE49">
         <v>-1</v>
@@ -10305,7 +10323,7 @@
         <v>-60</v>
       </c>
       <c r="AD50">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AE50">
         <v>-1</v>
@@ -10433,7 +10451,7 @@
         <v>-35</v>
       </c>
       <c r="AD51">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AE51">
         <v>-1</v>
@@ -10561,7 +10579,7 @@
         <v>-35</v>
       </c>
       <c r="AD52">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AE52">
         <v>-1</v>
@@ -10689,7 +10707,7 @@
         <v>-35</v>
       </c>
       <c r="AD53">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AE53">
         <v>-1</v>
@@ -10817,7 +10835,7 @@
         <v>-40</v>
       </c>
       <c r="AD54">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="AE54">
         <v>-1</v>
@@ -10928,7 +10946,7 @@
         <v>-15</v>
       </c>
       <c r="AD55">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="AE55">
         <v>-1</v>
@@ -11039,7 +11057,7 @@
         <v>-15</v>
       </c>
       <c r="AD56">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="AE56">
         <v>-1</v>
@@ -11150,7 +11168,7 @@
         <v>-60</v>
       </c>
       <c r="AD57">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="AE57">
         <v>-1</v>
@@ -11269,7 +11287,7 @@
         <v>-40</v>
       </c>
       <c r="AD58">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AE58">
         <v>-1</v>
@@ -11394,7 +11412,7 @@
         <v>-60</v>
       </c>
       <c r="AD59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE59">
         <v>-1</v>
@@ -11522,7 +11540,7 @@
         <v>-40</v>
       </c>
       <c r="AD60">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AE60">
         <v>-1</v>
@@ -11650,7 +11668,7 @@
         <v>-40</v>
       </c>
       <c r="AD61">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AE61">
         <v>-1</v>
@@ -11778,7 +11796,7 @@
         <v>-60</v>
       </c>
       <c r="AD62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE62">
         <v>-1</v>
@@ -11898,7 +11916,7 @@
         <v>-5</v>
       </c>
       <c r="AD63">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE63">
         <v>1</v>
@@ -12012,7 +12030,7 @@
         <v>-10</v>
       </c>
       <c r="AD64">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE64">
         <v>1</v>
@@ -12126,7 +12144,7 @@
         <v>-10</v>
       </c>
       <c r="AD65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE65">
         <v>1</v>
@@ -12246,7 +12264,7 @@
         <v>-10</v>
       </c>
       <c r="AD66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE66">
         <v>1</v>
@@ -12366,7 +12384,7 @@
         <v>-1</v>
       </c>
       <c r="AD67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE67">
         <v>1</v>
@@ -12486,7 +12504,7 @@
         <v>-1</v>
       </c>
       <c r="AD68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE68">
         <v>1</v>
@@ -12606,7 +12624,7 @@
         <v>-5</v>
       </c>
       <c r="AD69">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE69">
         <v>1</v>
@@ -12723,7 +12741,7 @@
         <v>-5</v>
       </c>
       <c r="AD70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE70">
         <v>1</v>
@@ -12843,7 +12861,7 @@
         <v>-10</v>
       </c>
       <c r="AD71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE71">
         <v>1</v>
@@ -12968,7 +12986,7 @@
         <v>-6</v>
       </c>
       <c r="AD72">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -13096,7 +13114,7 @@
         <v>-5</v>
       </c>
       <c r="AD73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE73">
         <v>1</v>
@@ -13213,7 +13231,7 @@
         <v>-5</v>
       </c>
       <c r="AD74">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE74">
         <v>1</v>
@@ -13333,7 +13351,7 @@
         <v>-5</v>
       </c>
       <c r="AD75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE75">
         <v>1</v>
@@ -13453,7 +13471,7 @@
         <v>-5</v>
       </c>
       <c r="AD76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE76">
         <v>1</v>
@@ -13573,7 +13591,7 @@
         <v>-5</v>
       </c>
       <c r="AD77">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE77">
         <v>1</v>
@@ -13690,7 +13708,7 @@
         <v>-5</v>
       </c>
       <c r="AD78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE78">
         <v>1</v>
@@ -13813,7 +13831,7 @@
         <v>-8</v>
       </c>
       <c r="AD79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE79">
         <v>1</v>
@@ -13936,7 +13954,7 @@
         <v>-8</v>
       </c>
       <c r="AD80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE80">
         <v>1</v>
@@ -14056,7 +14074,7 @@
         <v>-5</v>
       </c>
       <c r="AD81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE81">
         <v>1</v>
@@ -14176,7 +14194,7 @@
         <v>-5</v>
       </c>
       <c r="AD82">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE82">
         <v>1</v>
@@ -14296,7 +14314,7 @@
         <v>-5</v>
       </c>
       <c r="AD83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE83">
         <v>1</v>
@@ -14416,7 +14434,7 @@
         <v>-5</v>
       </c>
       <c r="AD84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE84">
         <v>1</v>
@@ -14533,7 +14551,7 @@
         <v>-5</v>
       </c>
       <c r="AD85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE85">
         <v>1</v>
@@ -14650,7 +14668,7 @@
         <v>-5</v>
       </c>
       <c r="AD86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE86">
         <v>1</v>
@@ -14767,7 +14785,7 @@
         <v>-30</v>
       </c>
       <c r="AD87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE87">
         <v>1</v>
@@ -14887,7 +14905,7 @@
         <v>-5</v>
       </c>
       <c r="AD88">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE88">
         <v>1</v>
@@ -15004,7 +15022,7 @@
         <v>-5</v>
       </c>
       <c r="AD89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE89">
         <v>1</v>
@@ -15124,7 +15142,7 @@
         <v>-5</v>
       </c>
       <c r="AD90">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE90">
         <v>1</v>
@@ -15244,7 +15262,7 @@
         <v>-5</v>
       </c>
       <c r="AD91">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE91">
         <v>1</v>
@@ -15364,7 +15382,7 @@
         <v>-10</v>
       </c>
       <c r="AD92">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE92">
         <v>1</v>
@@ -15484,7 +15502,7 @@
         <v>-5</v>
       </c>
       <c r="AD93">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE93">
         <v>1</v>
@@ -15601,7 +15619,7 @@
         <v>-5</v>
       </c>
       <c r="AD94">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE94">
         <v>1</v>
@@ -15721,7 +15739,7 @@
         <v>-5</v>
       </c>
       <c r="AD95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE95">
         <v>1</v>
@@ -15844,7 +15862,7 @@
         <v>-10</v>
       </c>
       <c r="AD96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE96">
         <v>1</v>
@@ -15964,7 +15982,7 @@
         <v>-5</v>
       </c>
       <c r="AD97">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE97">
         <v>1</v>
@@ -16084,7 +16102,7 @@
         <v>-5</v>
       </c>
       <c r="AD98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE98">
         <v>1</v>
@@ -16204,7 +16222,7 @@
         <v>-5</v>
       </c>
       <c r="AD99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE99">
         <v>1</v>
@@ -16324,7 +16342,7 @@
         <v>-5</v>
       </c>
       <c r="AD100">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE100">
         <v>1</v>
@@ -16444,7 +16462,7 @@
         <v>-5</v>
       </c>
       <c r="AD101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE101">
         <v>1</v>
@@ -16564,7 +16582,7 @@
         <v>-10</v>
       </c>
       <c r="AD102">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE102">
         <v>1</v>
@@ -16681,7 +16699,7 @@
         <v>-5</v>
       </c>
       <c r="AD103">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE103">
         <v>1</v>
@@ -16801,7 +16819,7 @@
         <v>-5</v>
       </c>
       <c r="AD104">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE104">
         <v>1</v>
@@ -16926,7 +16944,7 @@
         <v>-5</v>
       </c>
       <c r="AD105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE105">
         <v>1</v>
@@ -17051,7 +17069,7 @@
         <v>-5</v>
       </c>
       <c r="AD106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE106">
         <v>1</v>
@@ -17176,7 +17194,7 @@
         <v>-5</v>
       </c>
       <c r="AD107">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE107">
         <v>1</v>
@@ -17301,7 +17319,7 @@
         <v>-5</v>
       </c>
       <c r="AD108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE108">
         <v>1</v>
@@ -17426,7 +17444,7 @@
         <v>-5</v>
       </c>
       <c r="AD109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE109">
         <v>1</v>
@@ -17547,7 +17565,7 @@
         <v>-5</v>
       </c>
       <c r="AD110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE110">
         <v>1</v>
@@ -17668,7 +17686,7 @@
         <v>-5</v>
       </c>
       <c r="AD111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE111">
         <v>1</v>
@@ -17796,7 +17814,7 @@
         <v>-6</v>
       </c>
       <c r="AD112">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE112">
         <v>1</v>
@@ -17924,7 +17942,7 @@
         <v>-5</v>
       </c>
       <c r="AD113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE113">
         <v>1</v>
@@ -18043,7 +18061,7 @@
         <v>-7</v>
       </c>
       <c r="AD114">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE114">
         <v>1</v>
@@ -18168,7 +18186,7 @@
         <v>-5</v>
       </c>
       <c r="AD115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE115">
         <v>1</v>
@@ -18293,7 +18311,7 @@
         <v>-5</v>
       </c>
       <c r="AD116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE116">
         <v>1</v>
@@ -18421,7 +18439,7 @@
         <v>-5</v>
       </c>
       <c r="AD117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE117">
         <v>1</v>
@@ -18541,7 +18559,7 @@
         <v>-10</v>
       </c>
       <c r="AD118">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE118">
         <v>1</v>
@@ -18652,7 +18670,7 @@
         <v>-10</v>
       </c>
       <c r="AD119">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE119">
         <v>1</v>
@@ -18763,7 +18781,7 @@
         <v>-10</v>
       </c>
       <c r="AD120">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE120">
         <v>1</v>
@@ -18882,7 +18900,7 @@
         <v>-6</v>
       </c>
       <c r="AD121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE121">
         <v>1</v>
@@ -19010,7 +19028,7 @@
         <v>-5</v>
       </c>
       <c r="AD122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE122">
         <v>1</v>
@@ -19138,7 +19156,7 @@
         <v>-5</v>
       </c>
       <c r="AD123">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE123">
         <v>1</v>
@@ -19263,7 +19281,7 @@
         <v>-30</v>
       </c>
       <c r="AD124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE124">
         <v>1</v>
@@ -19379,7 +19397,7 @@
         <v>-5</v>
       </c>
       <c r="AD125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE125">
         <v>1</v>
@@ -19504,7 +19522,7 @@
         <v>-5</v>
       </c>
       <c r="AD126">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE126">
         <v>1</v>
@@ -19629,7 +19647,7 @@
         <v>-5</v>
       </c>
       <c r="AD127">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE127">
         <v>1</v>
@@ -19754,7 +19772,7 @@
         <v>-5</v>
       </c>
       <c r="AD128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE128">
         <v>1</v>
@@ -19879,7 +19897,7 @@
         <v>-5</v>
       </c>
       <c r="AD129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE129">
         <v>1</v>
@@ -20007,7 +20025,7 @@
         <v>-5</v>
       </c>
       <c r="AD130">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE130">
         <v>1</v>
@@ -20132,7 +20150,7 @@
         <v>-10</v>
       </c>
       <c r="AD131">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE131">
         <v>1</v>
@@ -20249,7 +20267,7 @@
         <v>-60</v>
       </c>
       <c r="AD132">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE132">
         <v>-1</v>
@@ -20369,7 +20387,7 @@
         <v>-30</v>
       </c>
       <c r="AD133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE133">
         <v>1</v>
@@ -20494,7 +20512,7 @@
         <v>-45</v>
       </c>
       <c r="AD134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE134">
         <v>1</v>
@@ -20619,7 +20637,7 @@
         <v>-30</v>
       </c>
       <c r="AD135">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE135">
         <v>1</v>
@@ -20744,7 +20762,7 @@
         <v>-90</v>
       </c>
       <c r="AD136">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE136">
         <v>-1</v>
@@ -20863,7 +20881,7 @@
         <v>-30</v>
       </c>
       <c r="AD137">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE137">
         <v>1</v>
@@ -20988,7 +21006,7 @@
         <v>-30</v>
       </c>
       <c r="AD138">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE138">
         <v>1</v>
@@ -21113,7 +21131,7 @@
         <v>-30</v>
       </c>
       <c r="AD139">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE139">
         <v>1</v>
@@ -21238,7 +21256,7 @@
         <v>-4</v>
       </c>
       <c r="AD140">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE140">
         <v>1</v>
@@ -21357,7 +21375,7 @@
         <v>-30</v>
       </c>
       <c r="AD141">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE141">
         <v>1</v>
@@ -21482,7 +21500,7 @@
         <v>-30</v>
       </c>
       <c r="AD142">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE142">
         <v>1</v>
@@ -21607,7 +21625,7 @@
         <v>-45</v>
       </c>
       <c r="AD143">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE143">
         <v>-1</v>
@@ -21735,7 +21753,7 @@
         <v>-45</v>
       </c>
       <c r="AD144">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE144">
         <v>-1</v>
@@ -21863,7 +21881,7 @@
         <v>-18</v>
       </c>
       <c r="AD145">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="AE145">
         <v>1</v>
@@ -21980,7 +21998,7 @@
         <v>-700</v>
       </c>
       <c r="AD146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE146">
         <v>-1</v>
@@ -22091,7 +22109,7 @@
         <v>-700</v>
       </c>
       <c r="AD147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE147">
         <v>-1</v>
@@ -22202,7 +22220,7 @@
         <v>-1000</v>
       </c>
       <c r="AD148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE148">
         <v>-1</v>
@@ -22321,7 +22339,7 @@
         <v>-1000</v>
       </c>
       <c r="AD149">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE149">
         <v>-1</v>
@@ -22444,7 +22462,7 @@
         <v>-60</v>
       </c>
       <c r="AD150">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE150">
         <v>-1</v>
@@ -22569,7 +22587,7 @@
         <v>-60</v>
       </c>
       <c r="AD151">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE151">
         <v>-1</v>
@@ -22694,7 +22712,7 @@
         <v>-60</v>
       </c>
       <c r="AD152">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE152">
         <v>-1</v>
@@ -22811,7 +22829,7 @@
         <v>-5</v>
       </c>
       <c r="AD153">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE153">
         <v>1</v>

--- a/pyfutures/universe.xlsx
+++ b/pyfutures/universe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1/BU/projects/pytower_develop/pyfutures/pyfutures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B399B-9694-DC48-9586-F3ACCE7E5508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43ADAAD-2E6E-DD40-8DD7-B95EDFF32A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="57100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universe" sheetId="1" r:id="rId1"/>
@@ -4284,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="AC64" sqref="AC64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pyfutures/universe.xlsx
+++ b/pyfutures/universe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1/BU/projects/pytower_develop/pyfutures/pyfutures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43ADAAD-2E6E-DD40-8DD7-B95EDFF32A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AF1E7D-573F-7147-903B-714BBCCC575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="57100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="1131">
   <si>
     <t>uname</t>
   </si>
@@ -4284,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AC64" sqref="AC64"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21800,76 +21800,68 @@
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="H145" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I145" t="s">
-        <v>997</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>1119</v>
+        <v>1005</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>1116</v>
       </c>
       <c r="K145" s="5">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="M145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N145" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P145" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="Q145" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
       <c r="R145" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="S145">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T145" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="U145" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="V145" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="X145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y145">
         <v>1</v>
       </c>
       <c r="Z145">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA145" t="s">
         <v>272</v>
@@ -21878,66 +21870,60 @@
         <v>272</v>
       </c>
       <c r="AC145">
-        <v>-18</v>
+        <v>-700</v>
       </c>
       <c r="AD145">
-        <v>1844</v>
+        <v>16</v>
       </c>
       <c r="AE145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF145" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="AG145" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="AH145" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="AI145" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="AJ145">
-        <v>22</v>
+        <v>0.71875</v>
       </c>
       <c r="AL145" t="s">
         <v>998</v>
       </c>
       <c r="AM145" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="AN145" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AO145" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="AQ145">
-        <v>1000</v>
-      </c>
-      <c r="AR145" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="AS145" s="1">
-        <v>0.91666666666666663</v>
+        <v>2500</v>
+      </c>
+      <c r="AT145" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>1002</v>
@@ -21946,13 +21932,13 @@
         <v>258</v>
       </c>
       <c r="I146" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="K146" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L146" s="5" t="s">
         <v>258</v>
@@ -21965,7 +21951,7 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="S146">
         <v>5.0000000000000001E-3</v>
@@ -22004,16 +21990,16 @@
         <v>-1</v>
       </c>
       <c r="AF146" t="s">
-        <v>318</v>
+        <v>663</v>
       </c>
       <c r="AG146" t="s">
-        <v>318</v>
+        <v>1008</v>
       </c>
       <c r="AH146" t="s">
-        <v>326</v>
+        <v>665</v>
       </c>
       <c r="AI146" s="1">
-        <v>0.71875</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="AL146" t="s">
         <v>998</v>
@@ -22025,7 +22011,7 @@
         <v>72</v>
       </c>
       <c r="AO146" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="AQ146">
         <v>2500</v>
@@ -22036,37 +22022,37 @@
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>344</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="H147" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="I147" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="K147" s="5">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="M147" s="5" t="b">
         <v>0</v>
@@ -22082,13 +22068,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T147" t="s">
-        <v>1003</v>
+        <v>737</v>
       </c>
       <c r="U147" t="s">
-        <v>1003</v>
+        <v>737</v>
       </c>
       <c r="V147" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="X147" t="b">
         <v>1</v>
@@ -22097,7 +22083,7 @@
         <v>1</v>
       </c>
       <c r="Z147">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AA147" t="s">
         <v>272</v>
@@ -22106,22 +22092,22 @@
         <v>272</v>
       </c>
       <c r="AC147">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="AD147">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE147">
         <v>-1</v>
       </c>
       <c r="AF147" t="s">
-        <v>663</v>
+        <v>1008</v>
       </c>
       <c r="AG147" t="s">
         <v>1008</v>
       </c>
       <c r="AH147" t="s">
-        <v>665</v>
+        <v>1014</v>
       </c>
       <c r="AI147" s="1">
         <v>0.68055555555555547</v>
@@ -22136,7 +22122,7 @@
         <v>72</v>
       </c>
       <c r="AO147" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="AQ147">
         <v>2500</v>
@@ -22147,47 +22133,55 @@
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>344</v>
+        <v>43</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="H148" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>1095</v>
+        <v>1019</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>1119</v>
       </c>
       <c r="K148" s="5">
-        <v>1.7</v>
+        <v>0.85</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="M148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
+      <c r="N148" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="O148" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Q148" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="R148" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="S148">
         <v>5.0000000000000001E-3</v>
@@ -22220,22 +22214,25 @@
         <v>-1000</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE148">
         <v>-1</v>
       </c>
       <c r="AF148" t="s">
-        <v>1008</v>
+        <v>50</v>
       </c>
       <c r="AG148" t="s">
-        <v>1008</v>
+        <v>377</v>
       </c>
       <c r="AH148" t="s">
-        <v>1014</v>
+        <v>370</v>
       </c>
       <c r="AI148" s="1">
-        <v>0.68055555555555547</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AJ148">
+        <v>22</v>
       </c>
       <c r="AL148" t="s">
         <v>998</v>
@@ -22244,81 +22241,82 @@
         <v>359</v>
       </c>
       <c r="AN148" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AO148" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="AQ148">
         <v>2500</v>
       </c>
+      <c r="AR148" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AS148" s="1">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="AT148" t="s">
-        <v>58</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="H149" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I149" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>1119</v>
+        <v>1028</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1085</v>
       </c>
       <c r="K149" s="5">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="M149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N149" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="O149" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P149" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="Q149" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
       <c r="R149" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="S149">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="T149" t="s">
-        <v>737</v>
+        <v>1024</v>
       </c>
       <c r="U149" t="s">
-        <v>737</v>
+        <v>1024</v>
       </c>
       <c r="V149" t="s">
-        <v>1013</v>
+        <v>389</v>
+      </c>
+      <c r="W149" t="s">
+        <v>1025</v>
       </c>
       <c r="X149" t="b">
         <v>1</v>
@@ -22327,121 +22325,123 @@
         <v>1</v>
       </c>
       <c r="Z149">
-        <v>2.5000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AA149" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="AB149" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="AC149">
-        <v>-1000</v>
+        <v>-60</v>
       </c>
       <c r="AD149">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE149">
         <v>-1</v>
       </c>
       <c r="AF149" t="s">
-        <v>50</v>
+        <v>1026</v>
       </c>
       <c r="AG149" t="s">
-        <v>377</v>
+        <v>207</v>
       </c>
       <c r="AH149" t="s">
-        <v>370</v>
+        <v>1027</v>
       </c>
       <c r="AI149" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="AJ149">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL149" t="s">
-        <v>998</v>
-      </c>
-      <c r="AM149" t="s">
-        <v>359</v>
+        <v>1029</v>
       </c>
       <c r="AN149" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AO149" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="AQ149">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="AR149" s="1">
-        <v>0.29166666666666669</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="AS149" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="AT149" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>315</v>
+        <v>1034</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="H150" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I150" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>1085</v>
+        <v>1036</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>1119</v>
       </c>
       <c r="K150" s="5">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="M150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
+      <c r="N150" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Q150" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="R150" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="S150">
         <v>0.05</v>
       </c>
       <c r="T150" t="s">
-        <v>1024</v>
+        <v>78</v>
       </c>
       <c r="U150" t="s">
-        <v>1024</v>
+        <v>78</v>
       </c>
       <c r="V150" t="s">
-        <v>389</v>
-      </c>
-      <c r="W150" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="X150" t="b">
         <v>1</v>
@@ -22468,57 +22468,57 @@
         <v>-1</v>
       </c>
       <c r="AF150" t="s">
-        <v>1026</v>
+        <v>50</v>
       </c>
       <c r="AG150" t="s">
-        <v>207</v>
+        <v>773</v>
       </c>
       <c r="AH150" t="s">
-        <v>1027</v>
+        <v>370</v>
       </c>
       <c r="AI150" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="AJ150">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL150" t="s">
         <v>1029</v>
       </c>
       <c r="AN150" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AO150" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="AQ150">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AR150" s="1">
-        <v>5.2083333333333336E-2</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AS150" s="1">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AT150" t="s">
-        <v>1031</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>1032</v>
@@ -22529,11 +22529,11 @@
       <c r="I151" t="s">
         <v>1036</v>
       </c>
-      <c r="J151" s="6" t="s">
-        <v>1119</v>
+      <c r="J151" s="3" t="s">
+        <v>1121</v>
       </c>
       <c r="K151" s="5">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="L151" s="5" t="s">
         <v>45</v>
@@ -22542,13 +22542,13 @@
         <v>0</v>
       </c>
       <c r="N151" s="5">
-        <v>1.47</v>
+        <v>0.2</v>
       </c>
       <c r="O151" s="5" t="s">
         <v>45</v>
       </c>
       <c r="P151" s="5">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q151" s="5" t="s">
         <v>45</v>
@@ -22557,7 +22557,7 @@
         <v>46</v>
       </c>
       <c r="S151">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="T151" t="s">
         <v>78</v>
@@ -22575,7 +22575,7 @@
         <v>1</v>
       </c>
       <c r="Z151">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AA151" t="s">
         <v>49</v>
@@ -22614,10 +22614,10 @@
         <v>56</v>
       </c>
       <c r="AO151" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AQ151">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AR151" s="1">
         <v>0.29166666666666669</v>
@@ -22631,67 +22631,59 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1034</v>
+        <v>315</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="H152" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="I152" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="K152" s="5">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="M152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N152" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O152" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P152" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q152" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
       <c r="R152" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="S152">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T152" t="s">
-        <v>78</v>
+        <v>729</v>
       </c>
       <c r="U152" t="s">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="V152" t="s">
-        <v>1035</v>
+        <v>731</v>
       </c>
       <c r="X152" t="b">
         <v>1</v>
@@ -22700,124 +22692,132 @@
         <v>1</v>
       </c>
       <c r="Z152">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA152" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="AB152" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="AC152">
-        <v>-60</v>
+        <v>-5</v>
       </c>
       <c r="AD152">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF152" t="s">
+        <v>703</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>619</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>704</v>
+      </c>
+      <c r="AI152" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AJ152">
+        <v>21</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>724</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AQ152">
         <v>50</v>
       </c>
-      <c r="AG152" t="s">
-        <v>773</v>
-      </c>
-      <c r="AH152" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI152" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="AJ152">
-        <v>22</v>
-      </c>
-      <c r="AL152" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AN152" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO152" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AQ152">
-        <v>100</v>
-      </c>
       <c r="AR152" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AS152" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="AT152" t="s">
-        <v>58</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>1040</v>
+        <v>995</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1040</v>
+        <v>995</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>1041</v>
+        <v>995</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>315</v>
+        <v>89</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>1042</v>
+        <v>995</v>
       </c>
       <c r="H153" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>1116</v>
+        <v>997</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>1119</v>
       </c>
       <c r="K153" s="5">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="M153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
+      <c r="N153" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O153" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Q153" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="R153" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="S153">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T153" t="s">
-        <v>729</v>
+        <v>996</v>
       </c>
       <c r="U153" t="s">
-        <v>760</v>
+        <v>996</v>
       </c>
       <c r="V153" t="s">
-        <v>731</v>
+        <v>996</v>
       </c>
       <c r="X153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y153">
         <v>1</v>
       </c>
       <c r="Z153">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AA153" t="s">
         <v>272</v>
@@ -22826,52 +22826,49 @@
         <v>272</v>
       </c>
       <c r="AC153">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="AD153">
-        <v>16</v>
+        <v>1844</v>
       </c>
       <c r="AE153">
         <v>1</v>
       </c>
       <c r="AF153" t="s">
-        <v>703</v>
+        <v>50</v>
       </c>
       <c r="AG153" t="s">
-        <v>619</v>
+        <v>51</v>
       </c>
       <c r="AH153" t="s">
-        <v>704</v>
+        <v>370</v>
       </c>
       <c r="AI153" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AJ153">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL153" t="s">
-        <v>506</v>
+        <v>998</v>
       </c>
       <c r="AM153" t="s">
-        <v>724</v>
+        <v>277</v>
       </c>
       <c r="AN153" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AO153" t="s">
-        <v>1044</v>
+        <v>999</v>
       </c>
       <c r="AQ153">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AR153" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AS153" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="AT153" t="s">
-        <v>1045</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.2">

--- a/pyfutures/universe.xlsx
+++ b/pyfutures/universe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1/BU/projects/pytower_develop/pyfutures/pyfutures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f1/projects/pytower/pyfutures/pyfutures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424675CD-F5CE-F54C-8308-65DFE348FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2190D66-899F-AD4F-887A-9E1110507E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="57100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33500" yWindow="560" windowWidth="16640" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universe" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="1145">
   <si>
     <t>uname</t>
   </si>
@@ -2035,9 +2035,6 @@
     <t>https://contract.ibkr.info/v3.10/index.php?action=Details&amp;site=GEN&amp;conid=673309400</t>
   </si>
   <si>
-    <t>MICRO</t>
-  </si>
-  <si>
     <t>FTMIB</t>
   </si>
   <si>
@@ -3449,6 +3446,15 @@
   </si>
   <si>
     <t>skip_months</t>
+  </si>
+  <si>
+    <t>MICR</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -4320,10 +4326,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4363,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1" t="s">
         <v>35</v>
@@ -4372,16 +4378,16 @@
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K1" t="s">
         <v>1114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1115</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1117</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
@@ -4408,13 +4414,13 @@
         <v>13</v>
       </c>
       <c r="V1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W1" t="s">
         <v>1139</v>
       </c>
-      <c r="W1" t="s">
-        <v>1140</v>
-      </c>
       <c r="X1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Y1" t="s">
         <v>14</v>
@@ -4512,7 +4518,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K2" s="5">
         <v>0.85</v>
@@ -4551,7 +4557,7 @@
         <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y2" t="b">
         <v>1</v>
@@ -4643,7 +4649,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
@@ -4674,7 +4680,7 @@
         <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -4757,7 +4763,7 @@
         <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K4" s="5">
         <v>2</v>
@@ -4788,7 +4794,7 @@
         <v>75</v>
       </c>
       <c r="W4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="X4" t="s">
         <v>76</v>
@@ -4874,7 +4880,7 @@
         <v>84</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K5" s="5">
         <v>2</v>
@@ -4905,7 +4911,7 @@
         <v>82</v>
       </c>
       <c r="W5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y5" t="b">
         <v>1</v>
@@ -4985,7 +4991,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K6" s="5">
         <v>0.85</v>
@@ -5024,7 +5030,7 @@
         <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y6" t="b">
         <v>1</v>
@@ -5116,7 +5122,7 @@
         <v>108</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K7" s="5">
         <v>0.85</v>
@@ -5152,10 +5158,10 @@
         <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="W7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y7" t="b">
         <v>1</v>
@@ -5218,7 +5224,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="AU7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -5247,7 +5253,7 @@
         <v>115</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K8" s="5">
         <v>0.85</v>
@@ -5286,7 +5292,7 @@
         <v>89</v>
       </c>
       <c r="W8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y8" t="b">
         <v>1</v>
@@ -5375,7 +5381,7 @@
         <v>121</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K9" s="5">
         <v>0.85</v>
@@ -5414,7 +5420,7 @@
         <v>89</v>
       </c>
       <c r="W9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y9" t="b">
         <v>1</v>
@@ -5503,7 +5509,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K10" s="5">
         <v>0.85</v>
@@ -5542,7 +5548,7 @@
         <v>91</v>
       </c>
       <c r="W10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y10" t="b">
         <v>1</v>
@@ -5605,7 +5611,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="AU10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
@@ -5634,7 +5640,7 @@
         <v>132</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K11" s="5">
         <v>0.85</v>
@@ -5673,7 +5679,7 @@
         <v>130</v>
       </c>
       <c r="W11" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y11" t="b">
         <v>1</v>
@@ -5765,7 +5771,7 @@
         <v>136</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="5">
         <v>0.85</v>
@@ -5804,7 +5810,7 @@
         <v>130</v>
       </c>
       <c r="W12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y12" t="b">
         <v>1</v>
@@ -5896,7 +5902,7 @@
         <v>141</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K13" s="5">
         <v>0.85</v>
@@ -5935,7 +5941,7 @@
         <v>91</v>
       </c>
       <c r="W13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
@@ -6018,7 +6024,7 @@
         <v>152</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K14" s="5">
         <v>0.85</v>
@@ -6057,7 +6063,7 @@
         <v>148</v>
       </c>
       <c r="W14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="X14" t="s">
         <v>149</v>
@@ -6143,7 +6149,7 @@
         <v>158</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K15" s="5">
         <v>0.85</v>
@@ -6182,7 +6188,7 @@
         <v>156</v>
       </c>
       <c r="W15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y15" t="b">
         <v>1</v>
@@ -6274,7 +6280,7 @@
         <v>162</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K16" s="5">
         <v>0.85</v>
@@ -6313,7 +6319,7 @@
         <v>161</v>
       </c>
       <c r="W16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y16" t="b">
         <v>1</v>
@@ -6405,7 +6411,7 @@
         <v>171</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K17" s="5">
         <v>0.85</v>
@@ -6444,7 +6450,7 @@
         <v>130</v>
       </c>
       <c r="W17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y17" t="b">
         <v>1</v>
@@ -6507,7 +6513,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="AU17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
@@ -6536,7 +6542,7 @@
         <v>179</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K18" s="5">
         <v>0.85</v>
@@ -6575,7 +6581,7 @@
         <v>91</v>
       </c>
       <c r="W18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y18" t="b">
         <v>1</v>
@@ -6667,7 +6673,7 @@
         <v>186</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K19" s="5">
         <v>0.85</v>
@@ -6706,7 +6712,7 @@
         <v>91</v>
       </c>
       <c r="W19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X19" t="s">
         <v>184</v>
@@ -6801,7 +6807,7 @@
         <v>196</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K20" s="5">
         <v>1.7</v>
@@ -6832,7 +6838,7 @@
         <v>193</v>
       </c>
       <c r="W20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y20" t="b">
         <v>1</v>
@@ -6924,7 +6930,7 @@
         <v>207</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K21" s="5">
         <v>3.1</v>
@@ -6955,7 +6961,7 @@
         <v>203</v>
       </c>
       <c r="W21" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="X21" t="s">
         <v>204</v>
@@ -7050,7 +7056,7 @@
         <v>217</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K22" s="5">
         <v>3.1</v>
@@ -7081,7 +7087,7 @@
         <v>193</v>
       </c>
       <c r="W22" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y22" t="b">
         <v>1</v>
@@ -7173,7 +7179,7 @@
         <v>226</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K23" s="5">
         <v>0.85</v>
@@ -7212,7 +7218,7 @@
         <v>91</v>
       </c>
       <c r="W23" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y23" t="b">
         <v>1</v>
@@ -7304,7 +7310,7 @@
         <v>236</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K24" s="5">
         <v>0.85</v>
@@ -7343,7 +7349,7 @@
         <v>91</v>
       </c>
       <c r="W24" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y24" t="b">
         <v>1</v>
@@ -7435,7 +7441,7 @@
         <v>243</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K25" s="5">
         <v>0.85</v>
@@ -7474,7 +7480,7 @@
         <v>91</v>
       </c>
       <c r="W25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y25" t="b">
         <v>1</v>
@@ -7566,7 +7572,7 @@
         <v>252</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K26" s="5">
         <v>0.85</v>
@@ -7605,7 +7611,7 @@
         <v>89</v>
       </c>
       <c r="W26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
@@ -7694,7 +7700,7 @@
         <v>262</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K27" s="5">
         <v>0.85</v>
@@ -7733,7 +7739,7 @@
         <v>213</v>
       </c>
       <c r="W27" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="Y27" t="b">
         <v>1</v>
@@ -7825,7 +7831,7 @@
         <v>273</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K28" s="5">
         <v>4.0000000000000001E-3</v>
@@ -7856,7 +7862,7 @@
         <v>268</v>
       </c>
       <c r="W28" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y28" t="b">
         <v>1</v>
@@ -7919,7 +7925,7 @@
         <v>0.28125</v>
       </c>
       <c r="AU28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
@@ -7948,7 +7954,7 @@
         <v>286</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K29" s="5">
         <v>500</v>
@@ -7979,7 +7985,7 @@
         <v>281</v>
       </c>
       <c r="W29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y29" t="b">
         <v>1</v>
@@ -8059,7 +8065,7 @@
         <v>290</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K30" s="5">
         <v>85</v>
@@ -8090,7 +8096,7 @@
         <v>281</v>
       </c>
       <c r="W30" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y30" t="b">
         <v>1</v>
@@ -8170,7 +8176,7 @@
         <v>299</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K31" s="5">
         <v>85</v>
@@ -8201,7 +8207,7 @@
         <v>281</v>
       </c>
       <c r="W31" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
@@ -8281,7 +8287,7 @@
         <v>309</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K32" s="5">
         <v>5</v>
@@ -8312,7 +8318,7 @@
         <v>305</v>
       </c>
       <c r="W32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y32" t="b">
         <v>1</v>
@@ -8392,7 +8398,7 @@
         <v>318</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K33" s="5">
         <v>2</v>
@@ -8423,7 +8429,7 @@
         <v>314</v>
       </c>
       <c r="W33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -8512,7 +8518,7 @@
         <v>325</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K34" s="5">
         <v>2</v>
@@ -8543,7 +8549,7 @@
         <v>323</v>
       </c>
       <c r="W34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
@@ -8632,7 +8638,7 @@
         <v>333</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K35" s="5">
         <v>2</v>
@@ -8663,7 +8669,7 @@
         <v>331</v>
       </c>
       <c r="W35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y35" t="b">
         <v>1</v>
@@ -8752,7 +8758,7 @@
         <v>339</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K36" s="5">
         <v>2</v>
@@ -8783,7 +8789,7 @@
         <v>337</v>
       </c>
       <c r="W36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y36" t="b">
         <v>1</v>
@@ -8872,7 +8878,7 @@
         <v>348</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K37" s="5">
         <v>1.7</v>
@@ -8903,7 +8909,7 @@
         <v>161</v>
       </c>
       <c r="W37" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y37" t="b">
         <v>1</v>
@@ -8995,7 +9001,7 @@
         <v>356</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K38" s="5">
         <v>2</v>
@@ -9026,7 +9032,7 @@
         <v>354</v>
       </c>
       <c r="W38" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y38" t="b">
         <v>1</v>
@@ -9115,7 +9121,7 @@
         <v>362</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K39" s="5">
         <v>2</v>
@@ -9146,7 +9152,7 @@
         <v>103</v>
       </c>
       <c r="W39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y39" t="b">
         <v>1</v>
@@ -9235,7 +9241,7 @@
         <v>369</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K40" s="5">
         <v>0.85</v>
@@ -9274,7 +9280,7 @@
         <v>89</v>
       </c>
       <c r="W40" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y40" t="b">
         <v>1</v>
@@ -9363,7 +9369,7 @@
         <v>377</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K41" s="5">
         <v>2.4</v>
@@ -9398,7 +9404,7 @@
         <v>332</v>
       </c>
       <c r="W41" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y41" t="b">
         <v>1</v>
@@ -9487,7 +9493,7 @@
         <v>382</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K42" s="5">
         <v>0.85</v>
@@ -9526,7 +9532,7 @@
         <v>381</v>
       </c>
       <c r="W42" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y42" t="b">
         <v>1</v>
@@ -9606,7 +9612,7 @@
         <v>388</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K43" s="5">
         <v>0.85</v>
@@ -9645,7 +9651,7 @@
         <v>386</v>
       </c>
       <c r="W43" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y43" t="b">
         <v>1</v>
@@ -9725,7 +9731,7 @@
         <v>393</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K44" s="5">
         <v>0.85</v>
@@ -9764,7 +9770,7 @@
         <v>89</v>
       </c>
       <c r="W44" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y44" t="b">
         <v>1</v>
@@ -9853,7 +9859,7 @@
         <v>397</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K45" s="5">
         <v>0.85</v>
@@ -9892,7 +9898,7 @@
         <v>102</v>
       </c>
       <c r="W45" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y45" t="b">
         <v>1</v>
@@ -9981,7 +9987,7 @@
         <v>402</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K46" s="5">
         <v>0.85</v>
@@ -10020,7 +10026,7 @@
         <v>401</v>
       </c>
       <c r="W46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -10109,7 +10115,7 @@
         <v>412</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K47" s="5">
         <v>9.75</v>
@@ -10140,7 +10146,7 @@
         <v>408</v>
       </c>
       <c r="W47" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y47" t="b">
         <v>1</v>
@@ -10220,10 +10226,10 @@
         <v>256</v>
       </c>
       <c r="I48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="K48" s="5">
         <v>6</v>
@@ -10254,7 +10260,7 @@
         <v>420</v>
       </c>
       <c r="W48" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y48" t="b">
         <v>1</v>
@@ -10346,7 +10352,7 @@
         <v>428</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K49" s="5">
         <v>2.4</v>
@@ -10377,7 +10383,7 @@
         <v>103</v>
       </c>
       <c r="W49" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y49" t="b">
         <v>1</v>
@@ -10460,7 +10466,7 @@
         <v>435</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K50" s="5">
         <v>5</v>
@@ -10491,7 +10497,7 @@
         <v>434</v>
       </c>
       <c r="W50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y50" t="b">
         <v>1</v>
@@ -10583,7 +10589,7 @@
         <v>445</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K51" s="5">
         <v>0.85</v>
@@ -10622,7 +10628,7 @@
         <v>441</v>
       </c>
       <c r="W51" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y51" t="b">
         <v>1</v>
@@ -10714,7 +10720,7 @@
         <v>448</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K52" s="5">
         <v>0.85</v>
@@ -10753,7 +10759,7 @@
         <v>441</v>
       </c>
       <c r="W52" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y52" t="b">
         <v>1</v>
@@ -10845,7 +10851,7 @@
         <v>451</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K53" s="5">
         <v>0.85</v>
@@ -10884,7 +10890,7 @@
         <v>441</v>
       </c>
       <c r="W53" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y53" t="b">
         <v>1</v>
@@ -10976,7 +10982,7 @@
         <v>455</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K54" s="5">
         <v>0.85</v>
@@ -11015,7 +11021,7 @@
         <v>161</v>
       </c>
       <c r="W54" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y54" t="b">
         <v>1</v>
@@ -11098,7 +11104,7 @@
         <v>463</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K55" s="5">
         <v>2.4</v>
@@ -11129,7 +11135,7 @@
         <v>461</v>
       </c>
       <c r="W55" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y55" t="b">
         <v>1</v>
@@ -11212,7 +11218,7 @@
         <v>463</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K56" s="5">
         <v>2.4</v>
@@ -11243,7 +11249,7 @@
         <v>461</v>
       </c>
       <c r="W56" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y56" t="b">
         <v>1</v>
@@ -11326,7 +11332,7 @@
         <v>470</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K57" s="5">
         <v>2.4</v>
@@ -11357,7 +11363,7 @@
         <v>469</v>
       </c>
       <c r="W57" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y57" t="b">
         <v>1</v>
@@ -11440,7 +11446,7 @@
         <v>477</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K58" s="5">
         <v>0.85</v>
@@ -11479,7 +11485,7 @@
         <v>332</v>
       </c>
       <c r="W58" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y58" t="b">
         <v>1</v>
@@ -11568,7 +11574,7 @@
         <v>484</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K59" s="5">
         <v>0.85</v>
@@ -11607,7 +11613,7 @@
         <v>483</v>
       </c>
       <c r="W59" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y59" t="b">
         <v>1</v>
@@ -11699,7 +11705,7 @@
         <v>488</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K60" s="5">
         <v>0.25</v>
@@ -11738,7 +11744,7 @@
         <v>483</v>
       </c>
       <c r="W60" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y60" t="b">
         <v>1</v>
@@ -11830,7 +11836,7 @@
         <v>491</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K61" s="5">
         <v>0.85</v>
@@ -11869,7 +11875,7 @@
         <v>483</v>
       </c>
       <c r="W61" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y61" t="b">
         <v>1</v>
@@ -11961,7 +11967,7 @@
         <v>496</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K62" s="5">
         <v>0.85</v>
@@ -12000,7 +12006,7 @@
         <v>483</v>
       </c>
       <c r="W62" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y62" t="b">
         <v>1</v>
@@ -12092,7 +12098,7 @@
         <v>503</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K63" s="5">
         <v>5</v>
@@ -12123,7 +12129,7 @@
         <v>82</v>
       </c>
       <c r="W63" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y63" t="b">
         <v>1</v>
@@ -12209,7 +12215,7 @@
         <v>518</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K64" s="5">
         <v>0.01</v>
@@ -12240,10 +12246,10 @@
         <v>515</v>
       </c>
       <c r="W64" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="X64" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Y64" t="b">
         <v>1</v>
@@ -12329,7 +12335,7 @@
         <v>528</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K65" s="5">
         <v>2.85</v>
@@ -12360,7 +12366,7 @@
         <v>524</v>
       </c>
       <c r="W65" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y65" t="b">
         <v>1</v>
@@ -12452,7 +12458,7 @@
         <v>537</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K66" s="5">
         <v>2.85</v>
@@ -12483,7 +12489,7 @@
         <v>533</v>
       </c>
       <c r="W66" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y66" t="b">
         <v>1</v>
@@ -12551,10 +12557,10 @@
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>540</v>
@@ -12563,7 +12569,7 @@
         <v>265</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>541</v>
@@ -12575,7 +12581,7 @@
         <v>544</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K67" s="5">
         <v>4.0000000000000001E-3</v>
@@ -12606,7 +12612,7 @@
         <v>268</v>
       </c>
       <c r="W67" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y67" t="b">
         <v>1</v>
@@ -12669,15 +12675,15 @@
         <v>0.28125</v>
       </c>
       <c r="AU67" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>546</v>
@@ -12686,7 +12692,7 @@
         <v>265</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>547</v>
@@ -12698,7 +12704,7 @@
         <v>549</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K68" s="5">
         <v>4.0000000000000001E-3</v>
@@ -12729,7 +12735,7 @@
         <v>45</v>
       </c>
       <c r="W68" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y68" t="b">
         <v>1</v>
@@ -12792,7 +12798,7 @@
         <v>0.28125</v>
       </c>
       <c r="AU68" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
@@ -12821,7 +12827,7 @@
         <v>560</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K69" s="5">
         <v>17</v>
@@ -12852,7 +12858,7 @@
         <v>555</v>
       </c>
       <c r="W69" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y69" t="b">
         <v>1</v>
@@ -12941,7 +12947,7 @@
         <v>567</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K70" s="5">
         <v>50</v>
@@ -12972,7 +12978,7 @@
         <v>281</v>
       </c>
       <c r="W70" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y70" t="b">
         <v>1</v>
@@ -13064,7 +13070,7 @@
         <v>573</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K71" s="5">
         <v>20</v>
@@ -13095,7 +13101,7 @@
         <v>555</v>
       </c>
       <c r="W71" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y71" t="b">
         <v>1</v>
@@ -13184,7 +13190,7 @@
         <v>581</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K72" s="5">
         <v>0.85</v>
@@ -13223,7 +13229,7 @@
         <v>323</v>
       </c>
       <c r="W72" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y72" t="b">
         <v>1</v>
@@ -13315,7 +13321,7 @@
         <v>586</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K73" s="5">
         <v>0.85</v>
@@ -13354,7 +13360,7 @@
         <v>323</v>
       </c>
       <c r="W73" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y73" t="b">
         <v>1</v>
@@ -13443,7 +13449,7 @@
         <v>596</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K74" s="5">
         <v>4</v>
@@ -13474,7 +13480,7 @@
         <v>515</v>
       </c>
       <c r="W74" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y74" t="b">
         <v>1</v>
@@ -13566,7 +13572,7 @@
         <v>602</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K75" s="5">
         <v>14</v>
@@ -13597,7 +13603,7 @@
         <v>281</v>
       </c>
       <c r="W75" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y75" t="b">
         <v>1</v>
@@ -13689,7 +13695,7 @@
         <v>607</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K76" s="5">
         <v>40</v>
@@ -13720,7 +13726,7 @@
         <v>281</v>
       </c>
       <c r="W76" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y76" t="b">
         <v>1</v>
@@ -13812,7 +13818,7 @@
         <v>618</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K77" s="5">
         <v>3</v>
@@ -13843,7 +13849,7 @@
         <v>613</v>
       </c>
       <c r="W77" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y77" t="b">
         <v>1</v>
@@ -13906,7 +13912,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="AU77" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
@@ -13935,7 +13941,7 @@
         <v>618</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K78" s="5">
         <v>3</v>
@@ -13966,7 +13972,7 @@
         <v>613</v>
       </c>
       <c r="W78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y78" t="b">
         <v>1</v>
@@ -14029,7 +14035,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="AU78" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
@@ -14058,7 +14064,7 @@
         <v>627</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K79" s="5">
         <v>2</v>
@@ -14089,7 +14095,7 @@
         <v>440</v>
       </c>
       <c r="W79" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X79" t="s">
         <v>626</v>
@@ -14155,7 +14161,7 @@
         <v>0.875</v>
       </c>
       <c r="AU79" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
@@ -14184,7 +14190,7 @@
         <v>627</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K80" s="5">
         <v>0.4</v>
@@ -14215,7 +14221,7 @@
         <v>440</v>
       </c>
       <c r="W80" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X80" t="s">
         <v>626</v>
@@ -14281,7 +14287,7 @@
         <v>0.875</v>
       </c>
       <c r="AU80" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
@@ -14310,7 +14316,7 @@
         <v>637</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K81" s="5">
         <v>2</v>
@@ -14341,7 +14347,7 @@
         <v>635</v>
       </c>
       <c r="W81" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y81" t="b">
         <v>1</v>
@@ -14433,7 +14439,7 @@
         <v>637</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K82" s="5">
         <v>0.4</v>
@@ -14464,7 +14470,7 @@
         <v>635</v>
       </c>
       <c r="W82" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y82" t="b">
         <v>1</v>
@@ -14556,7 +14562,7 @@
         <v>637</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K83" s="5">
         <v>0.8</v>
@@ -14587,7 +14593,7 @@
         <v>635</v>
       </c>
       <c r="W83" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y83" t="b">
         <v>1</v>
@@ -14679,7 +14685,7 @@
         <v>646</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K84" s="5">
         <v>2</v>
@@ -14710,7 +14716,7 @@
         <v>645</v>
       </c>
       <c r="W84" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y84" t="b">
         <v>1</v>
@@ -14799,7 +14805,7 @@
         <v>652</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K85" s="5">
         <v>0.4</v>
@@ -14830,7 +14836,7 @@
         <v>62</v>
       </c>
       <c r="W85" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y85" t="b">
         <v>1</v>
@@ -14919,7 +14925,7 @@
         <v>652</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K86" s="5">
         <v>2</v>
@@ -14950,7 +14956,7 @@
         <v>62</v>
       </c>
       <c r="W86" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y86" t="b">
         <v>1</v>
@@ -15039,7 +15045,7 @@
         <v>660</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K87" s="5">
         <v>1.7</v>
@@ -15070,7 +15076,7 @@
         <v>161</v>
       </c>
       <c r="W87" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y87" t="b">
         <v>1</v>
@@ -15162,7 +15168,7 @@
         <v>669</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K88" s="5">
         <v>1.7</v>
@@ -15193,7 +15199,7 @@
         <v>665</v>
       </c>
       <c r="W88" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y88" t="b">
         <v>1</v>
@@ -15258,31 +15264,31 @@
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="H89" t="s">
         <v>256</v>
       </c>
       <c r="I89" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K89" s="5">
         <v>0.2</v>
@@ -15304,16 +15310,16 @@
         <v>5</v>
       </c>
       <c r="T89" t="s">
+        <v>675</v>
+      </c>
+      <c r="U89" t="s">
         <v>676</v>
       </c>
-      <c r="U89" t="s">
-        <v>677</v>
-      </c>
       <c r="V89" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W89" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y89" t="b">
         <v>1</v>
@@ -15340,13 +15346,13 @@
         <v>1</v>
       </c>
       <c r="AG89" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AH89" t="s">
         <v>616</v>
       </c>
       <c r="AI89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ89" s="1">
         <v>0.73472222222222217</v>
@@ -15363,8 +15369,8 @@
       <c r="AO89" t="s">
         <v>70</v>
       </c>
-      <c r="AP89" t="s">
-        <v>681</v>
+      <c r="AP89" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="AR89">
         <v>0.2</v>
@@ -15376,36 +15382,36 @@
         <v>0.875</v>
       </c>
       <c r="AU89" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="H90" t="s">
         <v>256</v>
       </c>
       <c r="I90" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K90" s="5">
         <v>3</v>
@@ -15427,16 +15433,16 @@
         <v>5</v>
       </c>
       <c r="T90" t="s">
+        <v>675</v>
+      </c>
+      <c r="U90" t="s">
         <v>676</v>
       </c>
-      <c r="U90" t="s">
-        <v>677</v>
-      </c>
       <c r="V90" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W90" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y90" t="b">
         <v>1</v>
@@ -15463,13 +15469,13 @@
         <v>1</v>
       </c>
       <c r="AG90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AH90" t="s">
         <v>616</v>
       </c>
       <c r="AI90" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ90" s="1">
         <v>0.73472222222222217</v>
@@ -15487,7 +15493,7 @@
         <v>70</v>
       </c>
       <c r="AP90" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AR90">
         <v>5</v>
@@ -15499,36 +15505,36 @@
         <v>0.875</v>
       </c>
       <c r="AU90" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="H91" t="s">
         <v>256</v>
       </c>
       <c r="I91" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K91" s="5">
         <v>0.4</v>
@@ -15550,16 +15556,16 @@
         <v>5</v>
       </c>
       <c r="T91" t="s">
+        <v>675</v>
+      </c>
+      <c r="U91" t="s">
         <v>676</v>
       </c>
-      <c r="U91" t="s">
-        <v>677</v>
-      </c>
       <c r="V91" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W91" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y91" t="b">
         <v>1</v>
@@ -15586,13 +15592,13 @@
         <v>1</v>
       </c>
       <c r="AG91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AH91" t="s">
         <v>616</v>
       </c>
       <c r="AI91" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ91" s="1">
         <v>0.73472222222222217</v>
@@ -15610,7 +15616,7 @@
         <v>70</v>
       </c>
       <c r="AP91" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AR91">
         <v>1</v>
@@ -15622,36 +15628,36 @@
         <v>0.875</v>
       </c>
       <c r="AU91" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="H92" t="s">
         <v>256</v>
       </c>
       <c r="I92" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K92" s="5">
         <v>0.9</v>
@@ -15676,13 +15682,13 @@
         <v>515</v>
       </c>
       <c r="U92" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V92" t="s">
         <v>515</v>
       </c>
       <c r="W92" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y92" t="b">
         <v>1</v>
@@ -15709,13 +15715,13 @@
         <v>1</v>
       </c>
       <c r="AG92" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AH92" t="s">
         <v>616</v>
       </c>
       <c r="AI92" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AJ92" s="1">
         <v>0.72916666666666663</v>
@@ -15733,7 +15739,7 @@
         <v>70</v>
       </c>
       <c r="AP92" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -15745,36 +15751,36 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="AU92" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H93" t="s">
         <v>256</v>
       </c>
       <c r="I93" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K93" s="5">
         <v>2</v>
@@ -15805,7 +15811,7 @@
         <v>434</v>
       </c>
       <c r="W93" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y93" t="b">
         <v>1</v>
@@ -15832,13 +15838,13 @@
         <v>1</v>
       </c>
       <c r="AG93" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH93" t="s">
         <v>616</v>
       </c>
       <c r="AI93" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ93" s="1">
         <v>0.72916666666666663</v>
@@ -15856,7 +15862,7 @@
         <v>70</v>
       </c>
       <c r="AP93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AR93">
         <v>1</v>
@@ -15870,37 +15876,37 @@
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" t="s">
         <v>703</v>
       </c>
-      <c r="H94" t="s">
-        <v>704</v>
-      </c>
       <c r="I94" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K94" s="5">
         <v>1</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M94" s="5" t="b">
         <v>0</v>
@@ -15916,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U94" t="s">
         <v>332</v>
@@ -15925,7 +15931,7 @@
         <v>62</v>
       </c>
       <c r="W94" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y94" t="b">
         <v>1</v>
@@ -15952,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AG94" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH94" t="s">
         <v>616</v>
@@ -15970,13 +15976,13 @@
         <v>504</v>
       </c>
       <c r="AN94" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO94" t="s">
         <v>70</v>
       </c>
       <c r="AP94" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AR94">
         <v>1</v>
@@ -15988,42 +15994,42 @@
         <v>0.875</v>
       </c>
       <c r="AU94" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="H95" t="s">
         <v>703</v>
       </c>
-      <c r="H95" t="s">
-        <v>704</v>
-      </c>
       <c r="I95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K95" s="5">
         <v>4</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M95" s="5" t="b">
         <v>0</v>
@@ -16039,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="T95" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U95" t="s">
         <v>332</v>
@@ -16048,7 +16054,7 @@
         <v>62</v>
       </c>
       <c r="W95" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y95" t="b">
         <v>1</v>
@@ -16075,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="AG95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH95" t="s">
         <v>616</v>
@@ -16099,7 +16105,7 @@
         <v>70</v>
       </c>
       <c r="AP95" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AR95">
         <v>10</v>
@@ -16111,36 +16117,36 @@
         <v>0.875</v>
       </c>
       <c r="AU95" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H96" t="s">
         <v>256</v>
       </c>
       <c r="I96" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K96" s="5">
         <v>2</v>
@@ -16162,16 +16168,16 @@
         <v>0.05</v>
       </c>
       <c r="T96" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U96" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V96" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W96" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X96" t="s">
         <v>45</v>
@@ -16219,13 +16225,13 @@
         <v>504</v>
       </c>
       <c r="AN96" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO96" t="s">
         <v>70</v>
       </c>
       <c r="AP96" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AR96">
         <v>50</v>
@@ -16237,36 +16243,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU96" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="H97" t="s">
         <v>256</v>
       </c>
       <c r="I97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K97" s="5">
         <v>2</v>
@@ -16288,16 +16294,16 @@
         <v>0.1</v>
       </c>
       <c r="T97" t="s">
+        <v>721</v>
+      </c>
+      <c r="U97" t="s">
         <v>722</v>
       </c>
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>723</v>
       </c>
-      <c r="V97" t="s">
-        <v>724</v>
-      </c>
       <c r="W97" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y97" t="b">
         <v>1</v>
@@ -16324,13 +16330,13 @@
         <v>1</v>
       </c>
       <c r="AG97" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH97" t="s">
         <v>616</v>
       </c>
       <c r="AI97" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ97" s="1">
         <v>0.72916666666666663</v>
@@ -16342,13 +16348,13 @@
         <v>504</v>
       </c>
       <c r="AN97" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO97" t="s">
         <v>70</v>
       </c>
       <c r="AP97" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AR97">
         <v>50</v>
@@ -16360,36 +16366,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU97" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H98" t="s">
         <v>256</v>
       </c>
       <c r="I98" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K98" s="5">
         <v>2</v>
@@ -16411,16 +16417,16 @@
         <v>0.1</v>
       </c>
       <c r="T98" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U98" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V98" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W98" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y98" t="b">
         <v>1</v>
@@ -16447,13 +16453,13 @@
         <v>1</v>
       </c>
       <c r="AG98" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH98" t="s">
         <v>616</v>
       </c>
       <c r="AI98" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ98" s="1">
         <v>0.72916666666666663</v>
@@ -16465,13 +16471,13 @@
         <v>504</v>
       </c>
       <c r="AN98" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO98" t="s">
         <v>70</v>
       </c>
       <c r="AP98" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AR98">
         <v>50</v>
@@ -16485,31 +16491,31 @@
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H99" t="s">
         <v>256</v>
       </c>
       <c r="I99" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K99" s="5">
         <v>2</v>
@@ -16531,19 +16537,19 @@
         <v>0.1</v>
       </c>
       <c r="T99" t="s">
+        <v>734</v>
+      </c>
+      <c r="U99" t="s">
+        <v>734</v>
+      </c>
+      <c r="V99" t="s">
         <v>735</v>
       </c>
-      <c r="U99" t="s">
-        <v>735</v>
-      </c>
-      <c r="V99" t="s">
+      <c r="W99" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X99" t="s">
         <v>736</v>
-      </c>
-      <c r="W99" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X99" t="s">
-        <v>737</v>
       </c>
       <c r="Y99" t="b">
         <v>1</v>
@@ -16570,13 +16576,13 @@
         <v>1</v>
       </c>
       <c r="AG99" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH99" t="s">
         <v>616</v>
       </c>
       <c r="AI99" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ99" s="1">
         <v>0.72916666666666663</v>
@@ -16588,13 +16594,13 @@
         <v>504</v>
       </c>
       <c r="AN99" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO99" t="s">
         <v>70</v>
       </c>
       <c r="AP99" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AR99">
         <v>50</v>
@@ -16606,36 +16612,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H100" t="s">
         <v>256</v>
       </c>
       <c r="I100" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K100" s="5">
         <v>2</v>
@@ -16657,16 +16663,16 @@
         <v>0.1</v>
       </c>
       <c r="T100" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U100" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V100" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W100" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y100" t="b">
         <v>1</v>
@@ -16693,13 +16699,13 @@
         <v>1</v>
       </c>
       <c r="AG100" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH100" t="s">
         <v>616</v>
       </c>
       <c r="AI100" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ100" s="1">
         <v>0.72916666666666663</v>
@@ -16711,13 +16717,13 @@
         <v>504</v>
       </c>
       <c r="AN100" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO100" t="s">
         <v>70</v>
       </c>
       <c r="AP100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AR100">
         <v>50</v>
@@ -16729,36 +16735,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU100" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H101" t="s">
         <v>256</v>
       </c>
       <c r="I101" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K101" s="5">
         <v>2</v>
@@ -16780,16 +16786,16 @@
         <v>0.1</v>
       </c>
       <c r="T101" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U101" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V101" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W101" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y101" t="b">
         <v>1</v>
@@ -16816,13 +16822,13 @@
         <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH101" t="s">
         <v>616</v>
       </c>
       <c r="AI101" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ101" s="1">
         <v>0.72916666666666663</v>
@@ -16834,13 +16840,13 @@
         <v>504</v>
       </c>
       <c r="AN101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO101" t="s">
         <v>70</v>
       </c>
       <c r="AP101" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AR101">
         <v>50</v>
@@ -16852,36 +16858,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU101" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H102" t="s">
         <v>256</v>
       </c>
       <c r="I102" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K102" s="5">
         <v>2</v>
@@ -16903,16 +16909,16 @@
         <v>0.1</v>
       </c>
       <c r="T102" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U102" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V102" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W102" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y102" t="b">
         <v>1</v>
@@ -16939,13 +16945,13 @@
         <v>1</v>
       </c>
       <c r="AG102" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH102" t="s">
         <v>616</v>
       </c>
       <c r="AI102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ102" s="1">
         <v>0.72916666666666663</v>
@@ -16957,13 +16963,13 @@
         <v>504</v>
       </c>
       <c r="AN102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO102" t="s">
         <v>70</v>
       </c>
       <c r="AP102" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AR102">
         <v>50</v>
@@ -16977,31 +16983,31 @@
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H103" t="s">
         <v>256</v>
       </c>
       <c r="I103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K103" s="5">
         <v>2</v>
@@ -17023,16 +17029,16 @@
         <v>0.1</v>
       </c>
       <c r="T103" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U103" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V103" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W103" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y103" t="b">
         <v>1</v>
@@ -17059,13 +17065,13 @@
         <v>1</v>
       </c>
       <c r="AG103" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH103" t="s">
         <v>616</v>
       </c>
       <c r="AI103" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ103" s="1">
         <v>0.72916666666666663</v>
@@ -17077,13 +17083,13 @@
         <v>504</v>
       </c>
       <c r="AN103" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO103" t="s">
         <v>70</v>
       </c>
       <c r="AP103" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AR103">
         <v>50</v>
@@ -17095,36 +17101,36 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU103" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H104" t="s">
         <v>256</v>
       </c>
       <c r="I104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K104" s="5">
         <v>2</v>
@@ -17146,16 +17152,16 @@
         <v>0.1</v>
       </c>
       <c r="T104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W104" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y104" t="b">
         <v>1</v>
@@ -17182,13 +17188,13 @@
         <v>1</v>
       </c>
       <c r="AG104" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH104" t="s">
         <v>616</v>
       </c>
       <c r="AI104" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ104" s="1">
         <v>0.72916666666666663</v>
@@ -17200,13 +17206,13 @@
         <v>504</v>
       </c>
       <c r="AN104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO104" t="s">
         <v>70</v>
       </c>
       <c r="AP104" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AR104">
         <v>50</v>
@@ -17220,31 +17226,31 @@
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H105" t="s">
         <v>43</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K105" s="5">
         <v>0.85</v>
@@ -17274,16 +17280,16 @@
         <v>0.1</v>
       </c>
       <c r="T105" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U105" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V105" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W105" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y105" t="b">
         <v>1</v>
@@ -17313,7 +17319,7 @@
         <v>48</v>
       </c>
       <c r="AH105" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI105" t="s">
         <v>368</v>
@@ -17334,7 +17340,7 @@
         <v>54</v>
       </c>
       <c r="AP105" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AR105">
         <v>100</v>
@@ -17348,31 +17354,31 @@
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>770</v>
-      </c>
       <c r="H106" t="s">
         <v>43</v>
       </c>
       <c r="I106" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K106" s="5">
         <v>0.25</v>
@@ -17402,16 +17408,16 @@
         <v>1</v>
       </c>
       <c r="T106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V106" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W106" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y106" t="b">
         <v>1</v>
@@ -17462,7 +17468,7 @@
         <v>54</v>
       </c>
       <c r="AP106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AR106">
         <v>0.5</v>
@@ -17476,31 +17482,31 @@
     </row>
     <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="H107" t="s">
         <v>43</v>
       </c>
       <c r="I107" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K107" s="5">
         <v>0.25</v>
@@ -17530,16 +17536,16 @@
         <v>0.25</v>
       </c>
       <c r="T107" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U107" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V107" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W107" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y107" t="b">
         <v>1</v>
@@ -17590,7 +17596,7 @@
         <v>54</v>
       </c>
       <c r="AP107" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AR107">
         <v>2</v>
@@ -17604,31 +17610,31 @@
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>780</v>
-      </c>
       <c r="H108" t="s">
         <v>43</v>
       </c>
       <c r="I108" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K108" s="5">
         <v>0.25</v>
@@ -17658,16 +17664,16 @@
         <v>0.1</v>
       </c>
       <c r="T108" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U108" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V108" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="W108" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y108" t="b">
         <v>1</v>
@@ -17718,7 +17724,7 @@
         <v>54</v>
       </c>
       <c r="AP108" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AR108">
         <v>5</v>
@@ -17732,31 +17738,31 @@
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="H109" t="s">
         <v>43</v>
       </c>
       <c r="I109" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K109" s="5">
         <v>0.25</v>
@@ -17786,16 +17792,16 @@
         <v>0.25</v>
       </c>
       <c r="T109" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U109" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V109" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W109" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y109" t="b">
         <v>1</v>
@@ -17846,7 +17852,7 @@
         <v>54</v>
       </c>
       <c r="AP109" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AR109">
         <v>5</v>
@@ -17860,31 +17866,31 @@
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>372</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H110" t="s">
         <v>330</v>
       </c>
       <c r="I110" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K110" s="5">
         <v>2.4</v>
@@ -17910,16 +17916,16 @@
         <v>0.1</v>
       </c>
       <c r="T110" t="s">
+        <v>791</v>
+      </c>
+      <c r="U110" t="s">
         <v>792</v>
       </c>
-      <c r="U110" t="s">
-        <v>793</v>
-      </c>
       <c r="V110" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W110" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y110" t="b">
         <v>1</v>
@@ -17946,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AG110" t="s">
+        <v>793</v>
+      </c>
+      <c r="AH110" t="s">
         <v>794</v>
-      </c>
-      <c r="AH110" t="s">
-        <v>795</v>
       </c>
       <c r="AI110" t="s">
         <v>376</v>
@@ -17964,13 +17970,13 @@
         <v>504</v>
       </c>
       <c r="AN110" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO110" t="s">
         <v>54</v>
       </c>
       <c r="AP110" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AR110">
         <v>200</v>
@@ -17984,31 +17990,31 @@
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>372</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H111" t="s">
         <v>330</v>
       </c>
       <c r="I111" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K111" s="5">
         <v>2.4</v>
@@ -18034,16 +18040,16 @@
         <v>0.1</v>
       </c>
       <c r="T111" t="s">
+        <v>791</v>
+      </c>
+      <c r="U111" t="s">
         <v>792</v>
       </c>
-      <c r="U111" t="s">
-        <v>793</v>
-      </c>
       <c r="V111" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="W111" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y111" t="b">
         <v>1</v>
@@ -18070,10 +18076,10 @@
         <v>1</v>
       </c>
       <c r="AG111" t="s">
+        <v>793</v>
+      </c>
+      <c r="AH111" t="s">
         <v>794</v>
-      </c>
-      <c r="AH111" t="s">
-        <v>795</v>
       </c>
       <c r="AI111" t="s">
         <v>376</v>
@@ -18088,13 +18094,13 @@
         <v>504</v>
       </c>
       <c r="AN111" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO111" t="s">
         <v>54</v>
       </c>
       <c r="AP111" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AR111">
         <v>50</v>
@@ -18108,31 +18114,31 @@
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H112" t="s">
         <v>43</v>
       </c>
       <c r="I112" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K112" s="5">
         <v>0.85</v>
@@ -18162,19 +18168,19 @@
         <v>0.1</v>
       </c>
       <c r="T112" t="s">
+        <v>802</v>
+      </c>
+      <c r="U112" t="s">
+        <v>802</v>
+      </c>
+      <c r="V112" t="s">
         <v>803</v>
       </c>
-      <c r="U112" t="s">
-        <v>803</v>
-      </c>
-      <c r="V112" t="s">
+      <c r="W112" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X112" t="s">
         <v>804</v>
-      </c>
-      <c r="W112" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X112" t="s">
-        <v>805</v>
       </c>
       <c r="Y112" t="b">
         <v>1</v>
@@ -18204,7 +18210,7 @@
         <v>48</v>
       </c>
       <c r="AH112" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI112" t="s">
         <v>368</v>
@@ -18219,13 +18225,13 @@
         <v>504</v>
       </c>
       <c r="AN112" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO112" t="s">
         <v>54</v>
       </c>
       <c r="AP112" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AR112">
         <v>100</v>
@@ -18237,36 +18243,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU112" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>810</v>
       </c>
       <c r="H113" t="s">
         <v>145</v>
       </c>
       <c r="I113" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K113" s="5">
         <v>0.6</v>
@@ -18305,7 +18311,7 @@
         <v>146</v>
       </c>
       <c r="W113" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y113" t="b">
         <v>1</v>
@@ -18335,7 +18341,7 @@
         <v>48</v>
       </c>
       <c r="AH113" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AI113" t="s">
         <v>368</v>
@@ -18344,51 +18350,51 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="AM113" t="s">
+        <v>812</v>
+      </c>
+      <c r="AN113" t="s">
         <v>813</v>
-      </c>
-      <c r="AN113" t="s">
-        <v>814</v>
       </c>
       <c r="AO113" t="s">
         <v>54</v>
       </c>
       <c r="AP113" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AR113">
         <v>125000</v>
       </c>
       <c r="AU113" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>818</v>
       </c>
       <c r="H114" t="s">
         <v>221</v>
       </c>
       <c r="I114" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K114" s="5">
         <v>85</v>
@@ -18427,7 +18433,7 @@
         <v>146</v>
       </c>
       <c r="W114" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y114" t="b">
         <v>1</v>
@@ -18457,7 +18463,7 @@
         <v>48</v>
       </c>
       <c r="AH114" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AI114" t="s">
         <v>368</v>
@@ -18469,16 +18475,16 @@
         <v>22</v>
       </c>
       <c r="AM114" t="s">
+        <v>812</v>
+      </c>
+      <c r="AN114" t="s">
         <v>813</v>
-      </c>
-      <c r="AN114" t="s">
-        <v>814</v>
       </c>
       <c r="AO114" t="s">
         <v>54</v>
       </c>
       <c r="AP114" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AR114">
         <v>125000</v>
@@ -18492,31 +18498,31 @@
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>822</v>
-      </c>
       <c r="H115" t="s">
         <v>43</v>
       </c>
       <c r="I115" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K115" s="5">
         <v>0.85</v>
@@ -18546,16 +18552,16 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="T115" t="s">
+        <v>822</v>
+      </c>
+      <c r="U115" t="s">
         <v>823</v>
       </c>
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>824</v>
       </c>
-      <c r="V115" t="s">
-        <v>825</v>
-      </c>
       <c r="W115" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y115" t="b">
         <v>1</v>
@@ -18585,7 +18591,7 @@
         <v>48</v>
       </c>
       <c r="AH115" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AI115" t="s">
         <v>368</v>
@@ -18597,16 +18603,16 @@
         <v>22</v>
       </c>
       <c r="AM115" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN115" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO115" t="s">
         <v>54</v>
       </c>
       <c r="AP115" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AR115">
         <v>100000</v>
@@ -18620,31 +18626,31 @@
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>831</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H116" t="s">
         <v>43</v>
       </c>
       <c r="I116" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K116" s="5">
         <v>0.85</v>
@@ -18674,16 +18680,16 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="T116" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U116" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V116" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="W116" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y116" t="b">
         <v>1</v>
@@ -18725,16 +18731,16 @@
         <v>22</v>
       </c>
       <c r="AM116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN116" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO116" t="s">
         <v>54</v>
       </c>
       <c r="AP116" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AR116">
         <v>500000</v>
@@ -18746,36 +18752,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU116" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H117" t="s">
         <v>43</v>
       </c>
       <c r="I117" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K117" s="5">
         <v>0.85</v>
@@ -18811,10 +18817,10 @@
         <v>103</v>
       </c>
       <c r="V117" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W117" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y117" t="b">
         <v>1</v>
@@ -18844,7 +18850,7 @@
         <v>48</v>
       </c>
       <c r="AH117" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AI117" t="s">
         <v>368</v>
@@ -18856,16 +18862,16 @@
         <v>22</v>
       </c>
       <c r="AM117" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN117" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO117" t="s">
         <v>54</v>
       </c>
       <c r="AP117" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AR117">
         <v>500000</v>
@@ -18877,42 +18883,42 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU117" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="H118" t="s">
         <v>845</v>
       </c>
-      <c r="H118" t="s">
-        <v>846</v>
-      </c>
       <c r="I118" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K118" s="5">
         <v>11.2</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M118" s="5" t="b">
         <v>0</v>
@@ -18928,16 +18934,16 @@
         <v>1E-4</v>
       </c>
       <c r="T118" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U118" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="V118" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="W118" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y118" t="b">
         <v>1</v>
@@ -18964,10 +18970,10 @@
         <v>1</v>
       </c>
       <c r="AG118" t="s">
+        <v>847</v>
+      </c>
+      <c r="AH118" t="s">
         <v>848</v>
-      </c>
-      <c r="AH118" t="s">
-        <v>849</v>
       </c>
       <c r="AI118" t="s">
         <v>298</v>
@@ -18976,19 +18982,19 @@
         <v>0.75</v>
       </c>
       <c r="AM118" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN118" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO118" t="s">
         <v>276</v>
       </c>
       <c r="AP118" t="s">
+        <v>850</v>
+      </c>
+      <c r="AQ118" t="s">
         <v>851</v>
-      </c>
-      <c r="AQ118" t="s">
-        <v>852</v>
       </c>
       <c r="AR118">
         <v>100000</v>
@@ -18996,31 +19002,31 @@
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>854</v>
-      </c>
       <c r="H119" t="s">
         <v>43</v>
       </c>
       <c r="I119" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K119" s="5">
         <v>2.85</v>
@@ -19042,16 +19048,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="T119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="W119" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y119" t="b">
         <v>1</v>
@@ -19078,10 +19084,10 @@
         <v>1</v>
       </c>
       <c r="AG119" t="s">
+        <v>855</v>
+      </c>
+      <c r="AH119" t="s">
         <v>856</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>857</v>
       </c>
       <c r="AI119" t="s">
         <v>298</v>
@@ -19090,19 +19096,19 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="AM119" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN119" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO119" t="s">
         <v>276</v>
       </c>
       <c r="AP119" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AQ119" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AR119">
         <v>2000000</v>
@@ -19110,31 +19116,31 @@
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>861</v>
-      </c>
       <c r="H120" t="s">
         <v>43</v>
       </c>
       <c r="I120" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K120" s="5">
         <v>2.85</v>
@@ -19156,16 +19162,16 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="T120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="W120" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y120" t="b">
         <v>1</v>
@@ -19192,7 +19198,7 @@
         <v>1</v>
       </c>
       <c r="AG120" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AH120" t="s">
         <v>346</v>
@@ -19204,19 +19210,19 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="AM120" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN120" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO120" t="s">
         <v>276</v>
       </c>
       <c r="AP120" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AQ120" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AR120">
         <v>25000000</v>
@@ -19224,10 +19230,10 @@
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>247</v>
@@ -19236,19 +19242,19 @@
         <v>41</v>
       </c>
       <c r="E121" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>866</v>
-      </c>
       <c r="H121" t="s">
         <v>43</v>
       </c>
       <c r="I121" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K121" s="5">
         <v>0.85</v>
@@ -19281,13 +19287,13 @@
         <v>89</v>
       </c>
       <c r="U121" t="s">
+        <v>866</v>
+      </c>
+      <c r="V121" t="s">
         <v>867</v>
       </c>
-      <c r="V121" t="s">
-        <v>868</v>
-      </c>
       <c r="W121" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y121" t="b">
         <v>1</v>
@@ -19317,7 +19323,7 @@
         <v>48</v>
       </c>
       <c r="AH121" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AI121" t="s">
         <v>368</v>
@@ -19329,16 +19335,16 @@
         <v>22</v>
       </c>
       <c r="AM121" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN121" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO121" t="s">
         <v>54</v>
       </c>
       <c r="AP121" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AR121">
         <v>100000</v>
@@ -19350,15 +19356,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU121" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>330</v>
@@ -19367,19 +19373,19 @@
         <v>41</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>875</v>
-      </c>
       <c r="H122" t="s">
         <v>43</v>
       </c>
       <c r="I122" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K122" s="5">
         <v>0.85</v>
@@ -19412,13 +19418,13 @@
         <v>89</v>
       </c>
       <c r="U122" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V122" t="s">
         <v>89</v>
       </c>
       <c r="W122" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y122" t="b">
         <v>1</v>
@@ -19460,16 +19466,16 @@
         <v>22</v>
       </c>
       <c r="AM122" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN122" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO122" t="s">
         <v>54</v>
       </c>
       <c r="AP122" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AR122">
         <v>100000</v>
@@ -19481,36 +19487,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU122" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>881</v>
-      </c>
       <c r="H123" t="s">
         <v>43</v>
       </c>
       <c r="I123" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K123" s="5">
         <v>0.85</v>
@@ -19543,13 +19549,13 @@
         <v>89</v>
       </c>
       <c r="U123" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V123" t="s">
         <v>89</v>
       </c>
       <c r="W123" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y123" t="b">
         <v>1</v>
@@ -19579,7 +19585,7 @@
         <v>48</v>
       </c>
       <c r="AH123" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI123" t="s">
         <v>368</v>
@@ -19591,16 +19597,16 @@
         <v>22</v>
       </c>
       <c r="AM123" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN123" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO123" t="s">
         <v>54</v>
       </c>
       <c r="AP123" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AR123">
         <v>125000</v>
@@ -19612,36 +19618,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU123" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>887</v>
-      </c>
       <c r="H124" t="s">
         <v>43</v>
       </c>
       <c r="I124" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K124" s="5">
         <v>0.85</v>
@@ -19674,13 +19680,13 @@
         <v>89</v>
       </c>
       <c r="U124" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V124" t="s">
         <v>89</v>
       </c>
       <c r="W124" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y124" t="b">
         <v>1</v>
@@ -19707,10 +19713,10 @@
         <v>1</v>
       </c>
       <c r="AG124" t="s">
+        <v>888</v>
+      </c>
+      <c r="AH124" t="s">
         <v>889</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>890</v>
       </c>
       <c r="AI124" t="s">
         <v>444</v>
@@ -19719,16 +19725,16 @@
         <v>0.625</v>
       </c>
       <c r="AM124" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN124" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO124" t="s">
         <v>54</v>
       </c>
       <c r="AP124" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AR124">
         <v>1000</v>
@@ -19736,31 +19742,31 @@
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>894</v>
-      </c>
       <c r="H125" t="s">
         <v>43</v>
       </c>
       <c r="I125" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K125" s="5">
         <v>0.5</v>
@@ -19799,7 +19805,7 @@
         <v>281</v>
       </c>
       <c r="W125" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y125" t="b">
         <v>1</v>
@@ -19829,7 +19835,7 @@
         <v>48</v>
       </c>
       <c r="AH125" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI125" t="s">
         <v>368</v>
@@ -19841,16 +19847,16 @@
         <v>22</v>
       </c>
       <c r="AM125" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN125" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO125" t="s">
         <v>54</v>
       </c>
       <c r="AP125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AR125">
         <v>62500</v>
@@ -19862,15 +19868,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU125" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>256</v>
@@ -19879,19 +19885,19 @@
         <v>41</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H126" t="s">
         <v>43</v>
       </c>
       <c r="I126" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K126" s="5">
         <v>0.85</v>
@@ -19930,7 +19936,7 @@
         <v>281</v>
       </c>
       <c r="W126" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y126" t="b">
         <v>1</v>
@@ -19960,7 +19966,7 @@
         <v>48</v>
       </c>
       <c r="AH126" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI126" t="s">
         <v>368</v>
@@ -19972,16 +19978,16 @@
         <v>22</v>
       </c>
       <c r="AM126" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN126" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO126" t="s">
         <v>54</v>
       </c>
       <c r="AP126" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AR126">
         <v>125000</v>
@@ -19993,15 +19999,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU126" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>145</v>
@@ -20010,19 +20016,19 @@
         <v>41</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
         <v>899</v>
       </c>
-      <c r="H127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" t="s">
-        <v>900</v>
-      </c>
       <c r="J127" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K127" s="5">
         <v>0.85</v>
@@ -20055,13 +20061,13 @@
         <v>89</v>
       </c>
       <c r="U127" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V127" t="s">
         <v>89</v>
       </c>
       <c r="W127" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y127" t="b">
         <v>1</v>
@@ -20091,7 +20097,7 @@
         <v>48</v>
       </c>
       <c r="AH127" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI127" t="s">
         <v>368</v>
@@ -20103,16 +20109,16 @@
         <v>22</v>
       </c>
       <c r="AM127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN127" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO127" t="s">
         <v>54</v>
       </c>
       <c r="AP127" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AR127">
         <v>62500</v>
@@ -20124,15 +20130,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU127" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>221</v>
@@ -20141,19 +20147,19 @@
         <v>41</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>903</v>
-      </c>
       <c r="H128" t="s">
         <v>43</v>
       </c>
       <c r="I128" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K128" s="5">
         <v>0.85</v>
@@ -20186,13 +20192,13 @@
         <v>89</v>
       </c>
       <c r="U128" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V128" t="s">
         <v>89</v>
       </c>
       <c r="W128" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y128" t="b">
         <v>1</v>
@@ -20222,7 +20228,7 @@
         <v>48</v>
       </c>
       <c r="AH128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AI128" t="s">
         <v>368</v>
@@ -20234,16 +20240,16 @@
         <v>22</v>
       </c>
       <c r="AM128" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN128" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO128" t="s">
         <v>54</v>
       </c>
       <c r="AP128" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AR128">
         <v>12500000</v>
@@ -20255,36 +20261,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU128" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H129" t="s">
         <v>43</v>
       </c>
       <c r="I129" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K129" s="5">
         <v>0.15</v>
@@ -20317,13 +20323,13 @@
         <v>89</v>
       </c>
       <c r="U129" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V129" t="s">
         <v>89</v>
       </c>
       <c r="W129" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y129" t="b">
         <v>1</v>
@@ -20353,7 +20359,7 @@
         <v>48</v>
       </c>
       <c r="AH129" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AI129" t="s">
         <v>368</v>
@@ -20365,16 +20371,16 @@
         <v>22</v>
       </c>
       <c r="AM129" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN129" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO129" t="s">
         <v>54</v>
       </c>
       <c r="AP129" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AR129">
         <v>10000</v>
@@ -20386,36 +20392,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU129" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H130" t="s">
         <v>43</v>
       </c>
       <c r="I130" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K130" s="5">
         <v>0.15</v>
@@ -20454,7 +20460,7 @@
         <v>281</v>
       </c>
       <c r="W130" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y130" t="b">
         <v>1</v>
@@ -20484,7 +20490,7 @@
         <v>48</v>
       </c>
       <c r="AH130" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI130" t="s">
         <v>368</v>
@@ -20496,16 +20502,16 @@
         <v>22</v>
       </c>
       <c r="AM130" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN130" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO130" t="s">
         <v>54</v>
       </c>
       <c r="AP130" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AR130">
         <v>12500</v>
@@ -20517,36 +20523,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU130" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F131" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="H131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" t="s">
         <v>915</v>
       </c>
-      <c r="H131" t="s">
-        <v>43</v>
-      </c>
-      <c r="I131" t="s">
-        <v>916</v>
-      </c>
       <c r="J131" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K131" s="5">
         <v>0.85</v>
@@ -20585,7 +20591,7 @@
         <v>103</v>
       </c>
       <c r="W131" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y131" t="b">
         <v>1</v>
@@ -20615,7 +20621,7 @@
         <v>48</v>
       </c>
       <c r="AH131" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AI131" t="s">
         <v>368</v>
@@ -20627,16 +20633,16 @@
         <v>22</v>
       </c>
       <c r="AM131" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AN131" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AO131" t="s">
         <v>54</v>
       </c>
       <c r="AP131" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AR131">
         <v>100000</v>
@@ -20650,31 +20656,31 @@
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
       </c>
       <c r="I132" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K132" s="5">
         <v>3.25</v>
@@ -20696,16 +20702,16 @@
         <v>0.05</v>
       </c>
       <c r="T132" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="U132" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="V132" t="s">
         <v>433</v>
       </c>
       <c r="W132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y132" t="b">
         <v>1</v>
@@ -20732,7 +20738,7 @@
         <v>-1</v>
       </c>
       <c r="AG132" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AH132" t="s">
         <v>616</v>
@@ -20747,16 +20753,16 @@
         <v>6</v>
       </c>
       <c r="AM132" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN132" t="s">
         <v>923</v>
-      </c>
-      <c r="AN132" t="s">
-        <v>924</v>
       </c>
       <c r="AO132" t="s">
         <v>276</v>
       </c>
       <c r="AP132" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AR132">
         <v>100</v>
@@ -20768,36 +20774,36 @@
         <v>0.5</v>
       </c>
       <c r="AU132" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H133" t="s">
         <v>43</v>
       </c>
       <c r="I133" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K133" s="5">
         <v>2.85</v>
@@ -20819,16 +20825,16 @@
         <v>0.1</v>
       </c>
       <c r="T133" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="U133" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V133" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="W133" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y133" t="b">
         <v>1</v>
@@ -20855,13 +20861,13 @@
         <v>1</v>
       </c>
       <c r="AG133" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AH133" t="s">
         <v>616</v>
       </c>
       <c r="AI133" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AJ133" s="1">
         <v>0.75</v>
@@ -20870,16 +20876,16 @@
         <v>6</v>
       </c>
       <c r="AM133" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN133" t="s">
         <v>923</v>
-      </c>
-      <c r="AN133" t="s">
-        <v>924</v>
       </c>
       <c r="AO133" t="s">
         <v>276</v>
       </c>
       <c r="AP133" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AR133">
         <v>50</v>
@@ -20893,31 +20899,31 @@
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>936</v>
-      </c>
       <c r="E134" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H134" t="s">
         <v>43</v>
       </c>
       <c r="I134" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K134" s="5">
         <v>0.85</v>
@@ -20947,16 +20953,16 @@
         <v>0.25</v>
       </c>
       <c r="T134" t="s">
+        <v>936</v>
+      </c>
+      <c r="U134" t="s">
         <v>937</v>
       </c>
-      <c r="U134" t="s">
-        <v>938</v>
-      </c>
       <c r="V134" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="W134" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y134" t="b">
         <v>1</v>
@@ -20983,10 +20989,10 @@
         <v>1</v>
       </c>
       <c r="AG134" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH134" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AI134" t="s">
         <v>444</v>
@@ -20998,16 +21004,16 @@
         <v>23</v>
       </c>
       <c r="AM134" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN134" t="s">
         <v>923</v>
-      </c>
-      <c r="AN134" t="s">
-        <v>924</v>
       </c>
       <c r="AO134" t="s">
         <v>54</v>
       </c>
       <c r="AP134" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AR134">
         <v>25</v>
@@ -21021,31 +21027,31 @@
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>943</v>
-      </c>
       <c r="H135" t="s">
         <v>43</v>
       </c>
       <c r="I135" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K135" s="5">
         <v>0.85</v>
@@ -21075,16 +21081,16 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T135" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U135" t="s">
         <v>230</v>
       </c>
       <c r="V135" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y135" t="b">
         <v>1</v>
@@ -21096,10 +21102,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AB135" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC135" t="s">
         <v>945</v>
-      </c>
-      <c r="AC135" t="s">
-        <v>946</v>
       </c>
       <c r="AD135">
         <v>-30</v>
@@ -21111,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="AG135" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH135" t="s">
         <v>260</v>
@@ -21126,16 +21132,16 @@
         <v>23</v>
       </c>
       <c r="AM135" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN135" t="s">
         <v>923</v>
-      </c>
-      <c r="AN135" t="s">
-        <v>924</v>
       </c>
       <c r="AO135" t="s">
         <v>54</v>
       </c>
       <c r="AP135" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AR135">
         <v>25000</v>
@@ -21147,36 +21153,36 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="AU135" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H136" t="s">
         <v>43</v>
       </c>
       <c r="I136" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K136" s="5">
         <v>0.85</v>
@@ -21215,7 +21221,7 @@
         <v>204</v>
       </c>
       <c r="W136" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y136" t="b">
         <v>1</v>
@@ -21242,10 +21248,10 @@
         <v>-1</v>
       </c>
       <c r="AG136" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH136" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AI136" t="s">
         <v>444</v>
@@ -21254,16 +21260,16 @@
         <v>0.5</v>
       </c>
       <c r="AM136" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN136" t="s">
         <v>923</v>
-      </c>
-      <c r="AN136" t="s">
-        <v>924</v>
       </c>
       <c r="AO136" t="s">
         <v>54</v>
       </c>
       <c r="AP136" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AR136">
         <v>20</v>
@@ -21274,31 +21280,31 @@
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s">
         <v>953</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="H137" t="s">
-        <v>43</v>
-      </c>
-      <c r="I137" t="s">
-        <v>954</v>
-      </c>
       <c r="J137" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K137" s="5">
         <v>0.25</v>
@@ -21328,16 +21334,16 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T137" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U137" t="s">
         <v>230</v>
       </c>
       <c r="V137" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y137" t="b">
         <v>1</v>
@@ -21364,7 +21370,7 @@
         <v>1</v>
       </c>
       <c r="AG137" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH137" t="s">
         <v>260</v>
@@ -21379,16 +21385,16 @@
         <v>23</v>
       </c>
       <c r="AM137" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN137" t="s">
         <v>923</v>
-      </c>
-      <c r="AN137" t="s">
-        <v>924</v>
       </c>
       <c r="AO137" t="s">
         <v>54</v>
       </c>
       <c r="AP137" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AR137">
         <v>2500</v>
@@ -21400,36 +21406,36 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="AU137" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>438</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>957</v>
-      </c>
       <c r="H138" t="s">
         <v>43</v>
       </c>
       <c r="I138" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K138" s="5">
         <v>0.85</v>
@@ -21462,13 +21468,13 @@
         <v>89</v>
       </c>
       <c r="U138" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="V138" t="s">
         <v>89</v>
       </c>
       <c r="W138" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y138" t="b">
         <v>1</v>
@@ -21495,7 +21501,7 @@
         <v>1</v>
       </c>
       <c r="AG138" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH138" t="s">
         <v>260</v>
@@ -21510,16 +21516,16 @@
         <v>23</v>
       </c>
       <c r="AM138" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN138" t="s">
         <v>923</v>
-      </c>
-      <c r="AN138" t="s">
-        <v>924</v>
       </c>
       <c r="AO138" t="s">
         <v>54</v>
       </c>
       <c r="AP138" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AR138">
         <v>100</v>
@@ -21533,31 +21539,31 @@
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>962</v>
-      </c>
       <c r="H139" t="s">
         <v>43</v>
       </c>
       <c r="I139" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K139" s="5">
         <v>0.85</v>
@@ -21590,13 +21596,13 @@
         <v>130</v>
       </c>
       <c r="U139" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V139" t="s">
         <v>130</v>
       </c>
       <c r="W139" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y139" t="b">
         <v>1</v>
@@ -21623,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="AG139" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH139" t="s">
         <v>49</v>
@@ -21638,16 +21644,16 @@
         <v>23</v>
       </c>
       <c r="AM139" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN139" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO139" t="s">
         <v>54</v>
       </c>
       <c r="AP139" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AR139">
         <v>100</v>
@@ -21661,31 +21667,31 @@
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s">
         <v>968</v>
       </c>
-      <c r="H140" t="s">
-        <v>43</v>
-      </c>
-      <c r="I140" t="s">
-        <v>969</v>
-      </c>
       <c r="J140" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K140" s="5">
         <v>0.15</v>
@@ -21715,16 +21721,16 @@
         <v>5</v>
       </c>
       <c r="T140" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="U140" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V140" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="W140" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y140" t="b">
         <v>1</v>
@@ -21763,51 +21769,51 @@
         <v>0.625</v>
       </c>
       <c r="AM140" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN140" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO140" t="s">
         <v>54</v>
       </c>
       <c r="AP140" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AR140">
         <v>0.1</v>
       </c>
       <c r="AU140" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s">
         <v>971</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="H141" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" t="s">
-        <v>972</v>
-      </c>
       <c r="J141" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K141" s="5">
         <v>0.25</v>
@@ -21840,13 +21846,13 @@
         <v>130</v>
       </c>
       <c r="U141" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V141" t="s">
         <v>130</v>
       </c>
       <c r="W141" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y141" t="b">
         <v>1</v>
@@ -21873,7 +21879,7 @@
         <v>1</v>
       </c>
       <c r="AG141" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH141" t="s">
         <v>49</v>
@@ -21888,16 +21894,16 @@
         <v>23</v>
       </c>
       <c r="AM141" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN141" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO141" t="s">
         <v>54</v>
       </c>
       <c r="AP141" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AR141">
         <v>10</v>
@@ -21911,31 +21917,31 @@
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>438</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>975</v>
-      </c>
       <c r="H142" t="s">
         <v>43</v>
       </c>
       <c r="I142" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K142" s="5">
         <v>0.85</v>
@@ -21974,7 +21980,7 @@
         <v>130</v>
       </c>
       <c r="W142" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="Y142" t="b">
         <v>1</v>
@@ -21986,10 +21992,10 @@
         <v>0.1</v>
       </c>
       <c r="AB142" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AC142" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AD142">
         <v>-30</v>
@@ -22001,7 +22007,7 @@
         <v>1</v>
       </c>
       <c r="AG142" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH142" t="s">
         <v>224</v>
@@ -22016,16 +22022,16 @@
         <v>23</v>
       </c>
       <c r="AM142" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN142" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO142" t="s">
         <v>54</v>
       </c>
       <c r="AP142" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AR142">
         <v>50</v>
@@ -22039,31 +22045,31 @@
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>981</v>
-      </c>
       <c r="H143" t="s">
         <v>43</v>
       </c>
       <c r="I143" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K143" s="5">
         <v>0.85</v>
@@ -22102,7 +22108,7 @@
         <v>91</v>
       </c>
       <c r="W143" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y143" t="b">
         <v>1</v>
@@ -22129,10 +22135,10 @@
         <v>-1</v>
       </c>
       <c r="AG143" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH143" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AI143" t="s">
         <v>444</v>
@@ -22144,16 +22150,16 @@
         <v>23</v>
       </c>
       <c r="AM143" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN143" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO143" t="s">
         <v>54</v>
       </c>
       <c r="AP143" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AR143">
         <v>5000</v>
@@ -22165,36 +22171,36 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="AU143" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>981</v>
-      </c>
       <c r="H144" t="s">
         <v>43</v>
       </c>
       <c r="I144" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K144" s="5">
         <v>0.25</v>
@@ -22233,7 +22239,7 @@
         <v>91</v>
       </c>
       <c r="W144" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y144" t="b">
         <v>1</v>
@@ -22260,10 +22266,10 @@
         <v>-1</v>
       </c>
       <c r="AG144" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH144" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AI144" t="s">
         <v>444</v>
@@ -22275,16 +22281,16 @@
         <v>23</v>
       </c>
       <c r="AM144" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AN144" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AO144" t="s">
         <v>54</v>
       </c>
       <c r="AP144" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AR144">
         <v>1000</v>
@@ -22296,36 +22302,36 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="AU144" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>992</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>993</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H145" t="s">
         <v>256</v>
       </c>
       <c r="I145" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K145" s="5">
         <v>2</v>
@@ -22347,16 +22353,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T145" t="s">
+        <v>994</v>
+      </c>
+      <c r="U145" t="s">
+        <v>994</v>
+      </c>
+      <c r="V145" t="s">
         <v>995</v>
       </c>
-      <c r="U145" t="s">
-        <v>995</v>
-      </c>
-      <c r="V145" t="s">
-        <v>996</v>
-      </c>
       <c r="W145" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y145" t="b">
         <v>1</v>
@@ -22395,7 +22401,7 @@
         <v>0.71875</v>
       </c>
       <c r="AM145" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AN145" t="s">
         <v>357</v>
@@ -22404,7 +22410,7 @@
         <v>70</v>
       </c>
       <c r="AP145" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AR145">
         <v>2500</v>
@@ -22415,31 +22421,31 @@
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>342</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H146" t="s">
         <v>256</v>
       </c>
       <c r="I146" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K146" s="5">
         <v>2.5</v>
@@ -22461,16 +22467,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T146" t="s">
+        <v>994</v>
+      </c>
+      <c r="U146" t="s">
+        <v>994</v>
+      </c>
+      <c r="V146" t="s">
         <v>995</v>
       </c>
-      <c r="U146" t="s">
-        <v>995</v>
-      </c>
-      <c r="V146" t="s">
-        <v>996</v>
-      </c>
       <c r="W146" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y146" t="b">
         <v>1</v>
@@ -22500,7 +22506,7 @@
         <v>657</v>
       </c>
       <c r="AH146" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AI146" t="s">
         <v>659</v>
@@ -22509,7 +22515,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="AM146" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AN146" t="s">
         <v>357</v>
@@ -22518,7 +22524,7 @@
         <v>70</v>
       </c>
       <c r="AP146" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AR146">
         <v>2500</v>
@@ -22529,31 +22535,31 @@
     </row>
     <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>342</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H147" t="s">
         <v>145</v>
       </c>
       <c r="I147" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K147" s="5">
         <v>1.7</v>
@@ -22575,16 +22581,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T147" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U147" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V147" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W147" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y147" t="b">
         <v>1</v>
@@ -22611,19 +22617,19 @@
         <v>-1</v>
       </c>
       <c r="AG147" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AH147" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AI147" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AJ147" s="1">
         <v>0.68055555555555547</v>
       </c>
       <c r="AM147" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AN147" t="s">
         <v>357</v>
@@ -22632,7 +22638,7 @@
         <v>70</v>
       </c>
       <c r="AP147" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AR147">
         <v>2500</v>
@@ -22643,31 +22649,31 @@
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>1010</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H148" t="s">
         <v>43</v>
       </c>
       <c r="I148" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K148" s="5">
         <v>0.85</v>
@@ -22697,16 +22703,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T148" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U148" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V148" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W148" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y148" t="b">
         <v>1</v>
@@ -22748,7 +22754,7 @@
         <v>22</v>
       </c>
       <c r="AM148" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AN148" t="s">
         <v>357</v>
@@ -22757,7 +22763,7 @@
         <v>54</v>
       </c>
       <c r="AP148" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AR148">
         <v>2500</v>
@@ -22769,36 +22775,36 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU148" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>1015</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H149" t="s">
         <v>256</v>
       </c>
       <c r="I149" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K149" s="5">
         <v>2</v>
@@ -22820,19 +22826,19 @@
         <v>0.05</v>
       </c>
       <c r="T149" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="U149" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V149" t="s">
         <v>387</v>
       </c>
       <c r="W149" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="X149" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Y149" t="b">
         <v>1</v>
@@ -22859,13 +22865,13 @@
         <v>-1</v>
       </c>
       <c r="AG149" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AH149" t="s">
         <v>205</v>
       </c>
       <c r="AI149" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AJ149" s="1">
         <v>0.72916666666666663</v>
@@ -22874,13 +22880,13 @@
         <v>21</v>
       </c>
       <c r="AM149" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AO149" t="s">
         <v>70</v>
       </c>
       <c r="AP149" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AR149">
         <v>100</v>
@@ -22892,36 +22898,36 @@
         <v>0.875</v>
       </c>
       <c r="AU149" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="E150" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H150" t="s">
         <v>43</v>
       </c>
       <c r="I150" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K150" s="5">
         <v>0.85</v>
@@ -22957,10 +22963,10 @@
         <v>76</v>
       </c>
       <c r="V150" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W150" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y150" t="b">
         <v>1</v>
@@ -22990,7 +22996,7 @@
         <v>48</v>
       </c>
       <c r="AH150" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI150" t="s">
         <v>368</v>
@@ -23002,13 +23008,13 @@
         <v>22</v>
       </c>
       <c r="AM150" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AO150" t="s">
         <v>54</v>
       </c>
       <c r="AP150" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AR150">
         <v>1000</v>
@@ -23025,31 +23031,31 @@
     </row>
     <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H151" t="s">
         <v>43</v>
       </c>
       <c r="I151" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K151" s="5">
         <v>0.25</v>
@@ -23085,10 +23091,10 @@
         <v>76</v>
       </c>
       <c r="V151" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W151" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y151" t="b">
         <v>1</v>
@@ -23118,7 +23124,7 @@
         <v>48</v>
       </c>
       <c r="AH151" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI151" t="s">
         <v>368</v>
@@ -23130,13 +23136,13 @@
         <v>22</v>
       </c>
       <c r="AM151" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AO151" t="s">
         <v>54</v>
       </c>
       <c r="AP151" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AR151">
         <v>100</v>
@@ -23153,31 +23159,31 @@
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>1033</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H152" t="s">
         <v>256</v>
       </c>
       <c r="I152" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K152" s="5">
         <v>2</v>
@@ -23199,16 +23205,16 @@
         <v>0.1</v>
       </c>
       <c r="T152" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U152" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V152" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W152" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y152" t="b">
         <v>1</v>
@@ -23235,13 +23241,13 @@
         <v>1</v>
       </c>
       <c r="AG152" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH152" t="s">
         <v>616</v>
       </c>
       <c r="AI152" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ152" s="1">
         <v>0.72916666666666663</v>
@@ -23253,13 +23259,13 @@
         <v>504</v>
       </c>
       <c r="AN152" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO152" t="s">
         <v>70</v>
       </c>
       <c r="AP152" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AR152">
         <v>50</v>
@@ -23271,33 +23277,33 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU152" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H153" t="s">
         <v>43</v>
       </c>
       <c r="I153" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K153" s="5">
         <v>0.85</v>
@@ -23327,13 +23333,13 @@
         <v>0.01</v>
       </c>
       <c r="T153" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="U153" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V153" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Y153" t="b">
         <v>0</v>
@@ -23375,7 +23381,7 @@
         <v>22</v>
       </c>
       <c r="AM153" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AN153" t="s">
         <v>275</v>
@@ -23384,7 +23390,7 @@
         <v>54</v>
       </c>
       <c r="AP153" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AR153">
         <v>1000</v>
@@ -23398,22 +23404,22 @@
     </row>
     <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>1039</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I154" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S154">
         <v>0.05</v>
@@ -23458,27 +23464,27 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU154" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I155" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AB155" t="s">
         <v>270</v>
@@ -23502,7 +23508,7 @@
         <v>504</v>
       </c>
       <c r="AN155" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO155" t="s">
         <v>54</v>
@@ -23514,27 +23520,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU155" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>1047</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I156" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AB156" t="s">
         <v>270</v>
@@ -23558,7 +23564,7 @@
         <v>504</v>
       </c>
       <c r="AN156" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO156" t="s">
         <v>54</v>
@@ -23570,27 +23576,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU156" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>1051</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I157" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AB157" t="s">
         <v>270</v>
@@ -23614,7 +23620,7 @@
         <v>504</v>
       </c>
       <c r="AN157" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO157" t="s">
         <v>54</v>
@@ -23626,27 +23632,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU157" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>1053</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>1054</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I158" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AB158" t="s">
         <v>270</v>
@@ -23670,7 +23676,7 @@
         <v>504</v>
       </c>
       <c r="AN158" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO158" t="s">
         <v>54</v>
@@ -23682,27 +23688,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU158" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I159" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AB159" t="s">
         <v>270</v>
@@ -23726,7 +23732,7 @@
         <v>504</v>
       </c>
       <c r="AN159" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO159" t="s">
         <v>54</v>
@@ -23738,27 +23744,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU159" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>1060</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I160" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AB160" t="s">
         <v>270</v>
@@ -23782,7 +23788,7 @@
         <v>504</v>
       </c>
       <c r="AN160" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO160" t="s">
         <v>54</v>
@@ -23794,33 +23800,33 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="AU160" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>1063</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H161" t="s">
         <v>256</v>
       </c>
       <c r="I161" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J161" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K161" s="5">
         <v>2</v>
@@ -23832,10 +23838,10 @@
         <v>0.5</v>
       </c>
       <c r="T161" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V161" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z161">
         <v>1</v>
@@ -23865,13 +23871,13 @@
         <v>504</v>
       </c>
       <c r="AN161" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO161" t="s">
         <v>70</v>
       </c>
       <c r="AP161" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AR161">
         <v>10</v>
@@ -23883,33 +23889,33 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="AU161" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>1069</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H162" t="s">
         <v>256</v>
       </c>
       <c r="I162" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J162" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K162" s="5">
         <v>2</v>
@@ -23921,10 +23927,10 @@
         <v>0.1</v>
       </c>
       <c r="T162" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V162" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z162">
         <v>1</v>
@@ -23954,13 +23960,13 @@
         <v>504</v>
       </c>
       <c r="AN162" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO162" t="s">
         <v>70</v>
       </c>
       <c r="AP162" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AR162">
         <v>50</v>
@@ -23992,6 +23998,7 @@
     <hyperlink ref="AP105" r:id="rId16" xr:uid="{68428935-A25B-C647-8891-FBDDF953BA59}"/>
     <hyperlink ref="AP110" r:id="rId17" xr:uid="{AE0BB12C-0A25-2F41-81F1-5BCE210CAA89}"/>
     <hyperlink ref="AP111" r:id="rId18" xr:uid="{EFB42801-0959-2F40-AFFB-DE74775B808E}"/>
+    <hyperlink ref="AP89" r:id="rId19" xr:uid="{8C086633-7022-B046-A3B8-0DB0DB12AD3B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
